--- a/latest UST data.xlsx
+++ b/latest UST data.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pietr\Python\UST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9934F32-EB64-4F3F-AFB7-233263879DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5B53D6-1D04-44BD-AAC6-2B4F40E3B22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D6610DDF-F2FC-4233-9479-283E502D133C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{D6610DDF-F2FC-4233-9479-283E502D133C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="country summary (euro)" sheetId="1" r:id="rId1"/>
+    <sheet name="allocations month military euro" sheetId="2" r:id="rId2"/>
+    <sheet name="commitments month military euro" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="97">
   <si>
     <t>Country</t>
   </si>
@@ -247,18 +249,104 @@
   <si>
     <t>bad column</t>
   </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>January (2023)</t>
+  </si>
+  <si>
+    <t>February (2023)</t>
+  </si>
+  <si>
+    <t>March (2023)</t>
+  </si>
+  <si>
+    <t>April (2023)</t>
+  </si>
+  <si>
+    <t>May (2023)</t>
+  </si>
+  <si>
+    <t>June (2023)</t>
+  </si>
+  <si>
+    <t>July (2023)</t>
+  </si>
+  <si>
+    <t>August (2023)</t>
+  </si>
+  <si>
+    <t>September (2023)</t>
+  </si>
+  <si>
+    <t>October (2023)</t>
+  </si>
+  <si>
+    <t>November (2023)</t>
+  </si>
+  <si>
+    <t>December (2023)</t>
+  </si>
+  <si>
+    <t>January, 15th (2024)</t>
+  </si>
+  <si>
+    <t>European Investment Bank</t>
+  </si>
+  <si>
+    <t>European Peace Facility</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -278,14 +366,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2 2" xfId="1" xr:uid="{182A71B8-690C-496B-8CB1-E772EDDCD289}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -599,7 +689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB8F5493-1FC4-4A37-9F66-8354661E39A2}">
   <dimension ref="A1:AB43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
@@ -4306,4 +4396,7338 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57AC79C5-A062-4393-9F6A-5B3222DE9056}">
+  <dimension ref="A1:AA45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>84</v>
+      </c>
+      <c r="R1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T1" t="s">
+        <v>87</v>
+      </c>
+      <c r="U1" t="s">
+        <v>88</v>
+      </c>
+      <c r="V1" t="s">
+        <v>89</v>
+      </c>
+      <c r="W1" t="s">
+        <v>90</v>
+      </c>
+      <c r="X1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>2.8401022436807723E-3</v>
+      </c>
+      <c r="E2">
+        <v>6.9724108913866684E-2</v>
+      </c>
+      <c r="F2">
+        <v>6.1429344232734273E-2</v>
+      </c>
+      <c r="G2">
+        <v>3.660515717978001E-2</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>6.5035763659313572E-2</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>4.6861687020732748E-2</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1.9835306846186212E-2</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0.12021398088597704</v>
+      </c>
+      <c r="U2">
+        <v>4.6861687020732748E-2</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>1.2021398088597703E-2</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>3.3961696961090598E-3</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="E4">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2.6464000000000001E-3</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1.0639008E-2</v>
+      </c>
+      <c r="J4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K4">
+        <v>2.6761099399999998E-2</v>
+      </c>
+      <c r="L4">
+        <v>3.2356989999999999E-3</v>
+      </c>
+      <c r="M4">
+        <v>7.2852799999999999E-3</v>
+      </c>
+      <c r="N4">
+        <v>1.4444E-3</v>
+      </c>
+      <c r="O4">
+        <v>9.4039642000000007E-2</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>3.4484716000000239E-3</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.06</v>
+      </c>
+      <c r="T4">
+        <v>1.5E-3</v>
+      </c>
+      <c r="U4">
+        <v>7.5750106666666681E-4</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>3.5974628419956451E-3</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1.8934014957871816E-2</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>1.5971795891318752E-2</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.22730413154622084</v>
+      </c>
+      <c r="D6">
+        <v>2.5563078623739119E-2</v>
+      </c>
+      <c r="E6">
+        <v>1.2436092303440652E-2</v>
+      </c>
+      <c r="F6">
+        <v>3.2279339834011801E-2</v>
+      </c>
+      <c r="G6">
+        <v>0.10225231449495646</v>
+      </c>
+      <c r="H6">
+        <v>0.18094150673076223</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>3.2472018792317259E-2</v>
+      </c>
+      <c r="M6">
+        <v>0.36893740500207262</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>7.1658712417715292E-2</v>
+      </c>
+      <c r="P6">
+        <v>5.325721490767895E-2</v>
+      </c>
+      <c r="Q6">
+        <v>4.4597812285400183E-2</v>
+      </c>
+      <c r="R6">
+        <v>6.7776703053751539E-2</v>
+      </c>
+      <c r="S6">
+        <v>1.8509566770803745E-2</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>3.3715628022661322E-2</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0.44908111095757913</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>4.1453641011468839E-2</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1.6445623342175066E-2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>6.0197971813904926E-2</v>
+      </c>
+      <c r="N7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>4.4562709999999998E-2</v>
+      </c>
+      <c r="Q7">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="R7">
+        <v>2.9771015000000001E-2</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>5.5226798439199929E-3</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0.03</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2.5411102749755943E-2</v>
+      </c>
+      <c r="E9">
+        <v>8.5285738937133249E-3</v>
+      </c>
+      <c r="F9">
+        <v>0.29970347244061624</v>
+      </c>
+      <c r="G9">
+        <v>7.3842658335700084E-2</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1.7165636186137326E-2</v>
+      </c>
+      <c r="M9">
+        <v>3.9659941425317279E-2</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>9.6249999999999999E-3</v>
+      </c>
+      <c r="P9">
+        <v>5.3175723747419787E-2</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>2.8473804100227793E-2</v>
+      </c>
+      <c r="S9">
+        <v>4.7335037394679536E-2</v>
+      </c>
+      <c r="T9">
+        <v>0.50529779982607048</v>
+      </c>
+      <c r="U9">
+        <v>0.18934014957871814</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.13404107018390435</v>
+      </c>
+      <c r="G10">
+        <v>0.13404107018390435</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.10991367755080156</v>
+      </c>
+      <c r="K10">
+        <v>0.13136024878022626</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>5.9595195968044606E-2</v>
+      </c>
+      <c r="O10">
+        <v>0.24414153359413351</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.12063696316551392</v>
+      </c>
+      <c r="R10">
+        <v>1.4168810016893726E-2</v>
+      </c>
+      <c r="S10">
+        <v>0.22786981931263739</v>
+      </c>
+      <c r="T10">
+        <v>0.17425339123907566</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0.73981740244248784</v>
+      </c>
+      <c r="W10">
+        <v>0.77743820706664524</v>
+      </c>
+      <c r="X10">
+        <v>0.73722588601147387</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0.93828749128733036</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G11">
+        <v>0.24</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.01</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>3.1879999999999999E-2</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0.113</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>4.9430000000000003E-4</v>
+      </c>
+      <c r="R11">
+        <v>8.7749692322256941E-3</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0.08</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0.5</v>
+      </c>
+      <c r="E14">
+        <v>0.5</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.5</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0.5</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0.6</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0.5</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>5.475E-2</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>8.2500000000000004E-3</v>
+      </c>
+      <c r="L15">
+        <v>0.03</v>
+      </c>
+      <c r="M15">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="N15">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="O15">
+        <v>0.4</v>
+      </c>
+      <c r="P15">
+        <v>0.16</v>
+      </c>
+      <c r="Q15">
+        <v>0.161</v>
+      </c>
+      <c r="R15">
+        <v>7.8E-2</v>
+      </c>
+      <c r="S15">
+        <v>0.109</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0.105</v>
+      </c>
+      <c r="V15">
+        <v>9.4E-2</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="Y15">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0.10459534009042984</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>4.5349430462711893E-2</v>
+      </c>
+      <c r="N16">
+        <v>0.14550603263754808</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>2.1633017580232883E-2</v>
+      </c>
+      <c r="Q16">
+        <v>6.4754331155921621E-2</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>3.9572091261952096E-2</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>3.3815732178358419E-2</v>
+      </c>
+      <c r="G17">
+        <v>9.1311512183572835E-2</v>
+      </c>
+      <c r="H17">
+        <v>5.9026878585629078E-2</v>
+      </c>
+      <c r="I17">
+        <v>0.1066804930564266</v>
+      </c>
+      <c r="J17">
+        <v>6.4305694999999996E-2</v>
+      </c>
+      <c r="K17">
+        <v>1.9212877999999999E-2</v>
+      </c>
+      <c r="L17">
+        <v>0.75768211399999996</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0.74396267599999999</v>
+      </c>
+      <c r="O17">
+        <v>9.3552584999999994E-2</v>
+      </c>
+      <c r="P17">
+        <v>0.252686254</v>
+      </c>
+      <c r="Q17">
+        <v>0.151309153</v>
+      </c>
+      <c r="R17">
+        <v>5.4130981000000002E-2</v>
+      </c>
+      <c r="S17">
+        <v>2.7</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0.74370000000000003</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0.40110000000000001</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0.31468491561992651</v>
+      </c>
+      <c r="AA17">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1.6369648016661933E-2</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0.14397846066458392</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>2.126450932500237E-2</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>1.0632254662501185E-2</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>6.7293382561772221E-4</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>7.1658703071672356E-3</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>8.6006825938566549E-3</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>3.8500000000000001E-3</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0.15</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>8.473353592729339E-3</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0.15460748134588054</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0.32355391460759253</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>4.9269733254647535E-2</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>2.0827416453659E-3</v>
+      </c>
+      <c r="F23">
+        <v>1.7040613462084633E-4</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>6.8162453848338538E-5</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>2.8401022436807727E-2</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>3.5027927672062857E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0.21879999999999999</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0.03</v>
+      </c>
+      <c r="J24">
+        <v>4.592324514567532E-2</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>7.6565546699137982E-2</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F25">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="G25">
+        <v>1.55E-2</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>3.6135353592729336E-3</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>4.9719624491669128E-3</v>
+      </c>
+      <c r="L25">
+        <v>8.4187739846634472E-3</v>
+      </c>
+      <c r="M25">
+        <v>3.3201018189325783E-2</v>
+      </c>
+      <c r="N25">
+        <v>0.05</v>
+      </c>
+      <c r="O25">
+        <v>0.125</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.3672559415211201E-4</v>
+      </c>
+      <c r="R25">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>2.8171604468427532E-2</v>
+      </c>
+      <c r="U25">
+        <v>2.7E-2</v>
+      </c>
+      <c r="V25">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0.05</v>
+      </c>
+      <c r="E26">
+        <v>5.0568020448736151E-2</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>2.1447920500552074E-2</v>
+      </c>
+      <c r="M26">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>1.66E-2</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="U26">
+        <v>7.5750106666666681E-4</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0.01</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>6.1929963078670831E-2</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0.12720270750970908</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>3.9133505221531223E-2</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0.01</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0.245</v>
+      </c>
+      <c r="N28">
+        <v>0.10066602188866794</v>
+      </c>
+      <c r="O28">
+        <v>0.25425685884691851</v>
+      </c>
+      <c r="P28">
+        <v>2.0213170122124396E-2</v>
+      </c>
+      <c r="Q28">
+        <v>4.3772531753203718E-2</v>
+      </c>
+      <c r="R28">
+        <v>0.1575</v>
+      </c>
+      <c r="S28">
+        <v>0.30607831086401044</v>
+      </c>
+      <c r="T28">
+        <v>0.15488383981823345</v>
+      </c>
+      <c r="U28">
+        <v>7.1712682634352627E-4</v>
+      </c>
+      <c r="V28">
+        <v>0.75665264670634735</v>
+      </c>
+      <c r="W28">
+        <v>8.6522361168393069E-2</v>
+      </c>
+      <c r="X28">
+        <v>3.0176796364669131E-3</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>5.3703787455404585E-2</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>5.1574012056262554E-3</v>
+      </c>
+      <c r="F29">
+        <v>6.4746595222147799E-3</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>2.5117213663764233E-3</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>1.0325965617325296E-3</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>4.1862022772940388E-4</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>1.1105178453090976E-2</v>
+      </c>
+      <c r="E30">
+        <v>2.7927672062860926E-3</v>
+      </c>
+      <c r="F30">
+        <v>9.9943883903257508E-2</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>8.1175643106802114E-2</v>
+      </c>
+      <c r="I30">
+        <v>1.5737075944333996E-2</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1.4100539619426299E-2</v>
+      </c>
+      <c r="L30">
+        <v>3.0666665999999999E-2</v>
+      </c>
+      <c r="M30">
+        <v>0.1676928898214716</v>
+      </c>
+      <c r="N30">
+        <v>2.4078979051288227E-2</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>5.4547401204576448E-2</v>
+      </c>
+      <c r="Q30">
+        <v>9.4670074789359071E-2</v>
+      </c>
+      <c r="R30">
+        <v>2.8779702735965161E-2</v>
+      </c>
+      <c r="S30">
+        <v>0.11506961037584018</v>
+      </c>
+      <c r="T30">
+        <v>5.7559405471930322E-2</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>4.2998176877300405E-2</v>
+      </c>
+      <c r="X30">
+        <v>1.7199270750920162E-2</v>
+      </c>
+      <c r="Y30">
+        <v>4.2998176877300405E-3</v>
+      </c>
+      <c r="Z30">
+        <v>0.11480513226239207</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1.8</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>3.1414660702451955E-2</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0.1684795276247627</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0.15904572564612326</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>2.8878443623970465E-3</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2.2936665719965918E-3</v>
+      </c>
+      <c r="G32">
+        <v>4.851462559113803E-3</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>3.4081226924169269E-5</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>3.3229196251065039E-2</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>9.4017241314020637E-4</v>
+      </c>
+      <c r="P32">
+        <v>2.8401022436807727E-2</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>7.8007548991763692E-4</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>3.2389643922441586E-3</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>7.5736059831487269E-4</v>
+      </c>
+      <c r="F33">
+        <v>1.5147211966297454E-3</v>
+      </c>
+      <c r="G33">
+        <v>1.1171068825144373E-3</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>3.7868029915743634E-4</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>7.8576162075168036E-4</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>1.72E-2</v>
+      </c>
+      <c r="E35">
+        <v>3.2199999999999999E-2</v>
+      </c>
+      <c r="F35">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>7.2185932026886293E-2</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1.5948381993751776E-2</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="Q35">
+        <v>0.1950203540660797</v>
+      </c>
+      <c r="R35">
+        <v>0.26189179600000001</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>2.3493535029821076E-2</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>2.5670510271703112E-2</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>2.7112562718924548E-2</v>
+      </c>
+      <c r="F37">
+        <v>2.9096468806210359E-2</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0.11836000000000001</v>
+      </c>
+      <c r="I37">
+        <v>1.0756902395152891E-3</v>
+      </c>
+      <c r="J37">
+        <v>1.4242778443372127E-2</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>7.1901061158510651E-2</v>
+      </c>
+      <c r="M37">
+        <v>8.4559147230458039E-3</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>2.0241157166991031E-2</v>
+      </c>
+      <c r="P37">
+        <v>1.0756902395152891E-3</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>5.3E-3</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>1.9570679329756844E-3</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>7.7271790644961882E-2</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>7.7271790644961882E-2</v>
+      </c>
+      <c r="I38">
+        <v>4.9599903839549424E-2</v>
+      </c>
+      <c r="J38">
+        <v>4.2928772580534375E-2</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0.25757263548320625</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0.36918744419259564</v>
+      </c>
+      <c r="P38">
+        <v>6.3660891792104515</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>2.1464386290267191E-2</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0.27903702177347345</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0.18888659935435126</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>4.2928772580534376E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>6.3517939979172586E-2</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>8.0818839344883084E-2</v>
+      </c>
+      <c r="E41">
+        <v>0.64750497695979314</v>
+      </c>
+      <c r="F41">
+        <v>0.19618307953758504</v>
+      </c>
+      <c r="G41">
+        <v>0.41767022375419094</v>
+      </c>
+      <c r="H41">
+        <v>0.3027347516544745</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0.434349984697734</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0.28769524489363213</v>
+      </c>
+      <c r="M41">
+        <v>0.271781457801059</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0.92761233705132262</v>
+      </c>
+      <c r="P41">
+        <v>0.28802506970206687</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0.37868029915743628</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0.35715108643056298</v>
+      </c>
+      <c r="U41">
+        <v>9.5475410608026737E-2</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0.2304200557616535</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0.33134526176275675</v>
+      </c>
+      <c r="E42">
+        <v>0.94670074789359082</v>
+      </c>
+      <c r="F42">
+        <v>2.1982391366089176</v>
+      </c>
+      <c r="G42">
+        <v>2.0117390892738807</v>
+      </c>
+      <c r="H42">
+        <v>1.4200511218403862</v>
+      </c>
+      <c r="I42">
+        <v>1.4105841143614504</v>
+      </c>
+      <c r="J42">
+        <v>5.0222474675754993</v>
+      </c>
+      <c r="K42">
+        <v>2.2484142762472783</v>
+      </c>
+      <c r="L42">
+        <v>1.538388715327085</v>
+      </c>
+      <c r="M42">
+        <v>1.1360408974723089</v>
+      </c>
+      <c r="N42">
+        <v>2.0117390892738807</v>
+      </c>
+      <c r="O42">
+        <v>5.4435293003881471</v>
+      </c>
+      <c r="P42">
+        <v>4.3879579664867938</v>
+      </c>
+      <c r="Q42">
+        <v>0.71002556092019309</v>
+      </c>
+      <c r="R42">
+        <v>2.7690996875887532</v>
+      </c>
+      <c r="S42">
+        <v>2.0590741266685599</v>
+      </c>
+      <c r="T42">
+        <v>2.7690996875887532</v>
+      </c>
+      <c r="U42">
+        <v>2.3667518697339767</v>
+      </c>
+      <c r="V42">
+        <v>0.42601533655211588</v>
+      </c>
+      <c r="W42">
+        <v>1.0413708226829497</v>
+      </c>
+      <c r="X42">
+        <v>0.33134526176275675</v>
+      </c>
+      <c r="Y42">
+        <v>0.52068541134147484</v>
+      </c>
+      <c r="Z42">
+        <v>0.59168796743349417</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428FBD9C-05FA-4266-A6BB-44783D8BF374}">
+  <dimension ref="A1:AA43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>84</v>
+      </c>
+      <c r="R1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T1" t="s">
+        <v>87</v>
+      </c>
+      <c r="U1" t="s">
+        <v>88</v>
+      </c>
+      <c r="V1" t="s">
+        <v>89</v>
+      </c>
+      <c r="W1" t="s">
+        <v>90</v>
+      </c>
+      <c r="X1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>2.8401022436807723E-3</v>
+      </c>
+      <c r="E2">
+        <v>6.9724108913866684E-2</v>
+      </c>
+      <c r="F2">
+        <v>6.1429344232734273E-2</v>
+      </c>
+      <c r="G2">
+        <v>3.660515717978001E-2</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>6.5035763659313572E-2</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>4.6861687020732748E-2</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1.9835306846186212E-2</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0.12021398088597704</v>
+      </c>
+      <c r="U2">
+        <v>4.6861687020732748E-2</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>1.2021398088597703E-2</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>3.3961696961090598E-3</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="E4">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2.6464000000000001E-3</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1.0639008E-2</v>
+      </c>
+      <c r="J4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K4">
+        <v>2.6761099399999998E-2</v>
+      </c>
+      <c r="L4">
+        <v>3.2356989999999999E-3</v>
+      </c>
+      <c r="M4">
+        <v>7.2852799999999999E-3</v>
+      </c>
+      <c r="N4">
+        <v>1.4444E-3</v>
+      </c>
+      <c r="O4">
+        <v>9.4039642000000007E-2</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>3.4484716000000239E-3</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.06</v>
+      </c>
+      <c r="T4">
+        <v>1.5E-3</v>
+      </c>
+      <c r="U4">
+        <v>7.5750106666666681E-4</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>3.5974628419956451E-3</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1.8934014957871816E-2</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>1.5971795891318752E-2</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.22730413154622084</v>
+      </c>
+      <c r="D6">
+        <v>2.5563078623739119E-2</v>
+      </c>
+      <c r="E6">
+        <v>4.6980793146331357E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.34544700842890697</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.36893740500207262</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>7.1658712417715292E-2</v>
+      </c>
+      <c r="P6">
+        <v>5.325721490767895E-2</v>
+      </c>
+      <c r="Q6">
+        <v>4.4597812285400183E-2</v>
+      </c>
+      <c r="R6">
+        <v>6.7776703053751539E-2</v>
+      </c>
+      <c r="S6">
+        <v>1.8509566770803745E-2</v>
+      </c>
+      <c r="T6">
+        <v>0.32472018792317259</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0.44908111095757913</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0.35581041868177427</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1.6445623342175066E-2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>6.0197971813904926E-2</v>
+      </c>
+      <c r="N7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>4.4562709999999998E-2</v>
+      </c>
+      <c r="Q7">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="R7">
+        <v>2.9771015000000001E-2</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>5.5226798439199929E-3</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0.03</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2.5411102749755943E-2</v>
+      </c>
+      <c r="E9">
+        <v>8.5285738937133249E-3</v>
+      </c>
+      <c r="F9">
+        <v>0.29970347244061624</v>
+      </c>
+      <c r="G9">
+        <v>7.3842658335700084E-2</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1.7165636186137326E-2</v>
+      </c>
+      <c r="M9">
+        <v>3.9659941425317279E-2</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>9.6249999999999999E-3</v>
+      </c>
+      <c r="P9">
+        <v>5.3175723747419787E-2</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>2.8473804100227793E-2</v>
+      </c>
+      <c r="S9">
+        <v>4.7335037394679536E-2</v>
+      </c>
+      <c r="T9">
+        <v>0.50529779982607048</v>
+      </c>
+      <c r="U9">
+        <v>0.18934014957871814</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.13404107018390435</v>
+      </c>
+      <c r="G10">
+        <v>0.13404107018390435</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.10991367755080156</v>
+      </c>
+      <c r="K10">
+        <v>0.13136024878022626</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>5.9595195968044606E-2</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.4342394509677765</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>2.9354994370275045</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>3.4582596107447325</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G11">
+        <v>0.24</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.01</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>3.1879999999999999E-2</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0.113</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>4.9430000000000003E-4</v>
+      </c>
+      <c r="R11">
+        <v>8.7749692322256941E-3</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0.08</v>
+      </c>
+      <c r="AA11">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>5.475E-2</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>8.2500000000000004E-3</v>
+      </c>
+      <c r="L13">
+        <v>0.03</v>
+      </c>
+      <c r="M13">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="N13">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="O13">
+        <v>0.4</v>
+      </c>
+      <c r="P13">
+        <v>0.16</v>
+      </c>
+      <c r="Q13">
+        <v>0.161</v>
+      </c>
+      <c r="R13">
+        <v>7.8E-2</v>
+      </c>
+      <c r="S13">
+        <v>0.109</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0.105</v>
+      </c>
+      <c r="V13">
+        <v>9.4E-2</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="Y13">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0.10459534009042984</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0.2</v>
+      </c>
+      <c r="M14">
+        <v>4.5349430462711893E-2</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>6.4754331155921621E-2</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1.2</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>2.63E-2</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0.69</v>
+      </c>
+      <c r="O15">
+        <v>1.88</v>
+      </c>
+      <c r="P15">
+        <v>0.36</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>2.3650000000000002</v>
+      </c>
+      <c r="S15">
+        <v>10.5</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>4.3700000000000003E-2</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1.6369648016661933E-2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0.14397846066458392</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>2.126450932500237E-2</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1.0632254662501185E-2</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>6.7293382561772221E-4</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>7.1658703071672356E-3</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>8.6006825938566549E-3</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>3.8500000000000001E-3</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0.15</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>8.473353592729339E-3</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0.15460748134588054</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0.32355391460759253</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>4.9269733254647535E-2</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>2.0827416453659E-3</v>
+      </c>
+      <c r="F21">
+        <v>1.7040613462084633E-4</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>6.8162453848338538E-5</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>2.8401022436807727E-2</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>3.5027927672062857E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0.21879999999999999</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0.03</v>
+      </c>
+      <c r="J22">
+        <v>4.592324514567532E-2</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>7.6565546699137982E-2</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F23">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="G23">
+        <v>1.55E-2</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>3.6135353592729336E-3</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>4.9719624491669128E-3</v>
+      </c>
+      <c r="L23">
+        <v>8.4187739846634472E-3</v>
+      </c>
+      <c r="M23">
+        <v>3.3201018189325783E-2</v>
+      </c>
+      <c r="N23">
+        <v>0.05</v>
+      </c>
+      <c r="O23">
+        <v>0.125</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.3672559415211201E-4</v>
+      </c>
+      <c r="R23">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>2.8171604468427532E-2</v>
+      </c>
+      <c r="U23">
+        <v>0.22699999999999998</v>
+      </c>
+      <c r="V23">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0.05</v>
+      </c>
+      <c r="E24">
+        <v>5.6802044873615449E-4</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>2.1447920500552074E-2</v>
+      </c>
+      <c r="M24">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>1.66E-2</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="U24">
+        <v>7.5750106666666681E-4</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0.01</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>6.1929963078670831E-2</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0.12720270750970908</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>3.9133505221531223E-2</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0.01</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0.245</v>
+      </c>
+      <c r="N26">
+        <v>1.6606660218886675</v>
+      </c>
+      <c r="O26">
+        <v>9.0399999999999994E-2</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>1.806</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>5.1574012056262554E-3</v>
+      </c>
+      <c r="F27">
+        <v>6.4746595222147799E-3</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>2.5117213663764233E-3</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>1.0325965617325296E-3</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>4.1862022772940388E-4</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1.1105178453090976E-2</v>
+      </c>
+      <c r="E28">
+        <v>2.7927672062860926E-3</v>
+      </c>
+      <c r="F28">
+        <v>9.9943883903257508E-2</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>8.1175643106802114E-2</v>
+      </c>
+      <c r="I28">
+        <v>1.5737075944333996E-2</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0.2720896008832287</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>3.2248632657975302</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1.8</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>3.1414660702451955E-2</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0.1684795276247627</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0.15904572564612326</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>2.8878443623970465E-3</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>2.2936665719965918E-3</v>
+      </c>
+      <c r="G30">
+        <v>4.851462559113803E-3</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>3.4081226924169269E-5</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>3.3229196251065039E-2</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>9.4017241314020637E-4</v>
+      </c>
+      <c r="P30">
+        <v>2.8401022436807727E-2</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>7.8007548991763692E-4</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>3.2389643922441586E-3</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>7.5736059831487269E-4</v>
+      </c>
+      <c r="F31">
+        <v>1.5147211966297454E-3</v>
+      </c>
+      <c r="G31">
+        <v>1.1171068825144373E-3</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>3.7868029915743634E-4</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>7.8576162075168036E-4</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>1.72E-2</v>
+      </c>
+      <c r="E33">
+        <v>3.2199999999999999E-2</v>
+      </c>
+      <c r="F33">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>7.2185932026886293E-2</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1.5948381993751776E-2</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="Q33">
+        <v>0.1950203540660797</v>
+      </c>
+      <c r="R33">
+        <v>0.26189179600000001</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>2.3493535029821076E-2</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>2.5670510271703112E-2</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>2.7112562718924548E-2</v>
+      </c>
+      <c r="F35">
+        <v>2.9096468806210359E-2</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0.11836000000000001</v>
+      </c>
+      <c r="I35">
+        <v>1.0756902395152891E-3</v>
+      </c>
+      <c r="J35">
+        <v>1.4242778443372127E-2</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>7.1901061158510651E-2</v>
+      </c>
+      <c r="M35">
+        <v>8.4559147230458039E-3</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>2.0241157166991031E-2</v>
+      </c>
+      <c r="P35">
+        <v>1.0756902395152891E-3</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>5.3E-3</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>1.9570679329756844E-3</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>7.7271790644961882E-2</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>7.7271790644961882E-2</v>
+      </c>
+      <c r="I36">
+        <v>4.9599903839549424E-2</v>
+      </c>
+      <c r="J36">
+        <v>4.2928772580534375E-2</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0.25757263548320625</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0.36918744419259564</v>
+      </c>
+      <c r="P36">
+        <v>6.3660891792104515</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>2.1464386290267191E-2</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0.27903702177347345</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0.18888659935435126</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>6.3517939979172586E-2</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0.16163767868976617</v>
+      </c>
+      <c r="E39">
+        <v>0.64750497695979314</v>
+      </c>
+      <c r="F39">
+        <v>0.19618307953758504</v>
+      </c>
+      <c r="G39">
+        <v>1.4978212457225457</v>
+      </c>
+      <c r="H39">
+        <v>1.1521002788082675</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>2.6498306412590149</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>2.8802506970206689</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>8.5439742497396569</v>
+      </c>
+      <c r="F40">
+        <v>7.2115876171542164</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>6.3428950108870579</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>21.758023288838398</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/latest UST data.xlsx
+++ b/latest UST data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pietr\Python\UST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5B53D6-1D04-44BD-AAC6-2B4F40E3B22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6352B1BA-119E-4201-A4BC-43BD71DA0B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{D6610DDF-F2FC-4233-9479-283E502D133C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{D6610DDF-F2FC-4233-9479-283E502D133C}"/>
   </bookViews>
   <sheets>
     <sheet name="country summary (euro)" sheetId="1" r:id="rId1"/>
@@ -250,42 +250,6 @@
     <t>bad column</t>
   </si>
   <si>
-    <t>January</t>
-  </si>
-  <si>
-    <t>February</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>July</t>
-  </si>
-  <si>
-    <t>August</t>
-  </si>
-  <si>
-    <t>September</t>
-  </si>
-  <si>
-    <t>October</t>
-  </si>
-  <si>
-    <t>November</t>
-  </si>
-  <si>
-    <t>December</t>
-  </si>
-  <si>
     <t>January (2023)</t>
   </si>
   <si>
@@ -329,6 +293,42 @@
   </si>
   <si>
     <t>European Peace Facility</t>
+  </si>
+  <si>
+    <t>January (2022)</t>
+  </si>
+  <si>
+    <t>February (2022)</t>
+  </si>
+  <si>
+    <t>March (2022)</t>
+  </si>
+  <si>
+    <t>April (2022)</t>
+  </si>
+  <si>
+    <t>May (2022)</t>
+  </si>
+  <si>
+    <t>June (2022)</t>
+  </si>
+  <si>
+    <t>July (2022)</t>
+  </si>
+  <si>
+    <t>August (2022)</t>
+  </si>
+  <si>
+    <t>September (2022)</t>
+  </si>
+  <si>
+    <t>October (2022)</t>
+  </si>
+  <si>
+    <t>November (2022)</t>
+  </si>
+  <si>
+    <t>December (2022)</t>
   </si>
 </sst>
 </file>
@@ -4402,8 +4402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57AC79C5-A062-4393-9F6A-5B3222DE9056}">
   <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4416,79 +4416,79 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" t="s">
         <v>70</v>
       </c>
-      <c r="D1" t="s">
+      <c r="P1" t="s">
         <v>71</v>
       </c>
-      <c r="E1" t="s">
+      <c r="Q1" t="s">
         <v>72</v>
       </c>
-      <c r="F1" t="s">
+      <c r="R1" t="s">
         <v>73</v>
       </c>
-      <c r="G1" t="s">
+      <c r="S1" t="s">
         <v>74</v>
       </c>
-      <c r="H1" t="s">
+      <c r="T1" t="s">
         <v>75</v>
       </c>
-      <c r="I1" t="s">
+      <c r="U1" t="s">
         <v>76</v>
       </c>
-      <c r="J1" t="s">
+      <c r="V1" t="s">
         <v>77</v>
       </c>
-      <c r="K1" t="s">
+      <c r="W1" t="s">
         <v>78</v>
       </c>
-      <c r="L1" t="s">
+      <c r="X1" t="s">
         <v>79</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Y1" t="s">
         <v>80</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Z1" t="s">
         <v>81</v>
       </c>
-      <c r="O1" t="s">
+      <c r="AA1" t="s">
         <v>82</v>
-      </c>
-      <c r="P1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>84</v>
-      </c>
-      <c r="R1" t="s">
-        <v>85</v>
-      </c>
-      <c r="S1" t="s">
-        <v>86</v>
-      </c>
-      <c r="T1" t="s">
-        <v>87</v>
-      </c>
-      <c r="U1" t="s">
-        <v>88</v>
-      </c>
-      <c r="V1" t="s">
-        <v>89</v>
-      </c>
-      <c r="W1" t="s">
-        <v>90</v>
-      </c>
-      <c r="X1" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
@@ -5406,7 +5406,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -5489,7 +5489,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -8152,8 +8152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428FBD9C-05FA-4266-A6BB-44783D8BF374}">
   <dimension ref="A1:AA43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8166,79 +8166,79 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" t="s">
         <v>70</v>
       </c>
-      <c r="D1" t="s">
+      <c r="P1" t="s">
         <v>71</v>
       </c>
-      <c r="E1" t="s">
+      <c r="Q1" t="s">
         <v>72</v>
       </c>
-      <c r="F1" t="s">
+      <c r="R1" t="s">
         <v>73</v>
       </c>
-      <c r="G1" t="s">
+      <c r="S1" t="s">
         <v>74</v>
       </c>
-      <c r="H1" t="s">
+      <c r="T1" t="s">
         <v>75</v>
       </c>
-      <c r="I1" t="s">
+      <c r="U1" t="s">
         <v>76</v>
       </c>
-      <c r="J1" t="s">
+      <c r="V1" t="s">
         <v>77</v>
       </c>
-      <c r="K1" t="s">
+      <c r="W1" t="s">
         <v>78</v>
       </c>
-      <c r="L1" t="s">
+      <c r="X1" t="s">
         <v>79</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Y1" t="s">
         <v>80</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Z1" t="s">
         <v>81</v>
       </c>
-      <c r="O1" t="s">
+      <c r="AA1" t="s">
         <v>82</v>
-      </c>
-      <c r="P1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>84</v>
-      </c>
-      <c r="R1" t="s">
-        <v>85</v>
-      </c>
-      <c r="S1" t="s">
-        <v>86</v>
-      </c>
-      <c r="T1" t="s">
-        <v>87</v>
-      </c>
-      <c r="U1" t="s">
-        <v>88</v>
-      </c>
-      <c r="V1" t="s">
-        <v>89</v>
-      </c>
-      <c r="W1" t="s">
-        <v>90</v>
-      </c>
-      <c r="X1" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">

--- a/latest UST data.xlsx
+++ b/latest UST data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pietr\Python\UST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6352B1BA-119E-4201-A4BC-43BD71DA0B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E94C928-0823-4E14-9BCE-15A98B63324D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{D6610DDF-F2FC-4233-9479-283E502D133C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="96">
   <si>
     <t>Country</t>
   </si>
@@ -247,9 +247,6 @@
     <t>Total bilateral allocations € billion</t>
   </si>
   <si>
-    <t>bad column</t>
-  </si>
-  <si>
     <t>January (2023)</t>
   </si>
   <si>
@@ -366,16 +363,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2 2" xfId="1" xr:uid="{182A71B8-690C-496B-8CB1-E772EDDCD289}"/>
+    <cellStyle name="Standard 2 2 2" xfId="2" xr:uid="{B8AEB3A1-73AF-418F-8343-BA237AED3DC8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -687,15 +686,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB8F5493-1FC4-4A37-9F66-8354661E39A2}">
-  <dimension ref="A1:AB43"/>
+  <dimension ref="A1:AA43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+      <selection activeCell="AB1" sqref="AB1:AB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -777,11 +776,8 @@
       <c r="AA1" t="s">
         <v>68</v>
       </c>
-      <c r="AB1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -792,22 +788,22 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.0904009136262556E-2</v>
+        <v>8.2662899957010372E-2</v>
       </c>
       <c r="E2">
-        <v>0.4814285360916018</v>
+        <v>0.48619611349734609</v>
       </c>
       <c r="F2">
-        <v>0.56233254522786436</v>
+        <v>0.56885901345435652</v>
       </c>
       <c r="G2">
         <v>1552.6673632360601</v>
       </c>
       <c r="H2">
-        <v>1469.9113540055478</v>
+        <v>1415.1179030587496</v>
       </c>
       <c r="I2">
-        <v>3.8256221621493919E-2</v>
+        <v>4.0198700915646597E-2</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -825,49 +821,46 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.56233254522786436</v>
+        <v>0.56885901345435652</v>
       </c>
       <c r="P2">
-        <v>3.8256221621493919E-2</v>
+        <v>4.0198700915646597E-2</v>
       </c>
       <c r="Q2">
-        <v>0.46133772759078329</v>
+        <v>0.46583613626364273</v>
       </c>
       <c r="R2">
-        <v>2.0090808500818513E-2</v>
+        <v>2.0359977233703364E-2</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>8.0904009136262556E-2</v>
+        <v>8.2662899957010372E-2</v>
       </c>
       <c r="U2">
-        <v>0.4814285360916018</v>
+        <v>0.48619611349734609</v>
       </c>
       <c r="V2">
-        <v>0.56233254522786424</v>
+        <v>0.56885901345435641</v>
       </c>
       <c r="W2">
-        <v>3.8256221621493912E-2</v>
+        <v>4.019870091564659E-2</v>
       </c>
       <c r="X2">
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>8.0904009136262556E-2</v>
+        <v>8.2662899957010372E-2</v>
       </c>
       <c r="Z2">
-        <v>0.4814285360916018</v>
+        <v>0.48619611349734609</v>
       </c>
       <c r="AA2">
-        <v>0.56233254522786436</v>
-      </c>
-      <c r="AB2">
-        <v>14.387217994555021</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+        <v>0.56885901345435652</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -878,25 +871,25 @@
         <v>0.68</v>
       </c>
       <c r="D3">
-        <v>0.11954897325139639</v>
+        <v>0.11880359519554322</v>
       </c>
       <c r="E3">
-        <v>3.3961696961090598E-3</v>
+        <v>3.2695716824644549E-3</v>
       </c>
       <c r="F3">
-        <v>0.80294514294750541</v>
+        <v>0.80207316687800767</v>
       </c>
       <c r="G3">
         <v>480.36840389336402</v>
       </c>
       <c r="H3">
-        <v>454.76512723029822</v>
+        <v>437.81298203915787</v>
       </c>
       <c r="I3">
-        <v>0.17656260229049728</v>
+        <v>0.18319995061413472</v>
       </c>
       <c r="J3">
-        <v>2.2571472875590062</v>
+        <v>2.490402786706932</v>
       </c>
       <c r="K3">
         <v>0.1574841465078019</v>
@@ -905,19 +898,19 @@
         <v>6.099641966512525E-2</v>
       </c>
       <c r="M3">
-        <v>2.4756278537319334</v>
+        <v>2.7088833528798593</v>
       </c>
       <c r="N3">
-        <v>0.54437504230139599</v>
+        <v>0.61873070557729082</v>
       </c>
       <c r="O3">
-        <v>3.278572996679439</v>
+        <v>3.5109565197578672</v>
       </c>
       <c r="P3">
-        <v>0.72093764459189336</v>
+        <v>0.80193065619142567</v>
       </c>
       <c r="Q3">
-        <v>3.3961696961090598E-3</v>
+        <v>3.2695716824644549E-3</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -926,34 +919,31 @@
         <v>0.68</v>
       </c>
       <c r="T3">
-        <v>0.11954897325139639</v>
+        <v>0.11880359519554322</v>
       </c>
       <c r="U3">
-        <v>3.3961696961090598E-3</v>
+        <v>3.2695716824644549E-3</v>
       </c>
       <c r="V3">
-        <v>0.80294514294750552</v>
+        <v>0.80207316687800767</v>
       </c>
       <c r="W3">
-        <v>0.17656260229049731</v>
+        <v>0.18319995061413472</v>
       </c>
       <c r="X3">
         <v>0.68</v>
       </c>
       <c r="Y3">
-        <v>6.5148973251396375E-2</v>
+        <v>6.4403595195543201E-2</v>
       </c>
       <c r="Z3">
-        <v>3.3961696961090598E-3</v>
+        <v>3.2695716824644549E-3</v>
       </c>
       <c r="AA3">
-        <v>0.7485451429475054</v>
-      </c>
-      <c r="AB3">
-        <v>8.70341272870502</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+        <v>0.74767316687800767</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -961,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1.7485599999999999</v>
+        <v>1.7785599999999999</v>
       </c>
       <c r="D4">
         <v>0.11044</v>
@@ -970,37 +960,37 @@
         <v>0.32775750106666668</v>
       </c>
       <c r="F4">
-        <v>2.1867575010666664</v>
+        <v>2.2167575010666667</v>
       </c>
       <c r="G4">
         <v>594.10417753952504</v>
       </c>
       <c r="H4">
-        <v>562.43886920337502</v>
+        <v>541.4730017677042</v>
       </c>
       <c r="I4">
-        <v>0.38879914259196513</v>
+        <v>0.40939391139166559</v>
       </c>
       <c r="J4">
-        <v>2.6888114195771737</v>
+        <v>2.9666754531938642</v>
       </c>
       <c r="K4">
-        <v>0.19312922755341486</v>
+        <v>0.19312922755341488</v>
       </c>
       <c r="L4">
         <v>0.12287640113448946</v>
       </c>
       <c r="M4">
-        <v>3.0048170482650778</v>
+        <v>3.2826810818817687</v>
       </c>
       <c r="N4">
-        <v>0.53424775789785461</v>
+        <v>0.60625018628169058</v>
       </c>
       <c r="O4">
-        <v>5.1915745493317438</v>
+        <v>5.4994385829484358</v>
       </c>
       <c r="P4">
-        <v>0.92304690048981963</v>
+        <v>1.0156440976733563</v>
       </c>
       <c r="Q4">
         <v>0.31825750106666667</v>
@@ -1009,19 +999,19 @@
         <v>9.5000000000000084E-3</v>
       </c>
       <c r="S4">
-        <v>1.5225599999999999</v>
+        <v>1.52356</v>
       </c>
       <c r="T4">
-        <v>0.10594000000000001</v>
+        <v>0.11044</v>
       </c>
       <c r="U4">
         <v>0.32775750106666668</v>
       </c>
       <c r="V4">
-        <v>1.9562575010666665</v>
+        <v>1.9617575010666666</v>
       </c>
       <c r="W4">
-        <v>0.34781691098936013</v>
+        <v>0.36230015063766274</v>
       </c>
       <c r="X4">
         <v>0.17856</v>
@@ -1035,11 +1025,8 @@
       <c r="AA4">
         <v>0.55615750106666662</v>
       </c>
-      <c r="AB4">
-        <v>8.9614902081534051</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1050,46 +1037,46 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.7399804480164402E-4</v>
+        <v>8.6840271625841857E-4</v>
       </c>
       <c r="E5">
-        <v>0.24503407219768952</v>
+        <v>0.24443869628449694</v>
       </c>
       <c r="F5">
-        <v>0.24590807024249117</v>
+        <v>0.24530709900075537</v>
       </c>
       <c r="G5">
         <v>84.056312734308904</v>
       </c>
       <c r="H5">
-        <v>79.576174130747802</v>
+        <v>76.609836615301589</v>
       </c>
       <c r="I5">
-        <v>0.30902223300965864</v>
+        <v>0.32020313557457608</v>
       </c>
       <c r="J5">
-        <v>0.48333602530977499</v>
+        <v>0.53328437669172213</v>
       </c>
       <c r="K5">
-        <v>2.4395038762887334E-2</v>
+        <v>2.4395038762887331E-2</v>
       </c>
       <c r="L5">
         <v>4.8391219918298457E-3</v>
       </c>
       <c r="M5">
-        <v>0.51257018606449223</v>
+        <v>0.56251853744643932</v>
       </c>
       <c r="N5">
-        <v>0.64412519408424029</v>
+        <v>0.73426411319885942</v>
       </c>
       <c r="O5">
-        <v>0.7584782563069834</v>
+        <v>0.80782563644719474</v>
       </c>
       <c r="P5">
-        <v>0.95314742709389877</v>
+        <v>1.0544672487734357</v>
       </c>
       <c r="Q5">
-        <v>0.24503407219768952</v>
+        <v>0.24443869628449694</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1098,34 +1085,31 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>8.7399804480164402E-4</v>
+        <v>8.6840271625841857E-4</v>
       </c>
       <c r="U5">
-        <v>0.24503407219768952</v>
+        <v>0.24443869628449694</v>
       </c>
       <c r="V5">
-        <v>0.24590807024249117</v>
+        <v>0.24530709900075534</v>
       </c>
       <c r="W5">
-        <v>0.30902223300965864</v>
+        <v>0.32020313557457603</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>8.7399804480164402E-4</v>
+        <v>8.6840271625841857E-4</v>
       </c>
       <c r="Z5">
-        <v>0.24503407219768952</v>
+        <v>0.24443869628449694</v>
       </c>
       <c r="AA5">
-        <v>0.24590807024249117</v>
-      </c>
-      <c r="AB5">
-        <v>0.3554165765848149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+        <v>0.24530709900075537</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1133,25 +1117,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.4714121880441495</v>
+        <v>3.4317120026121883</v>
       </c>
       <c r="D6">
-        <v>0.27615033853806825</v>
+        <v>0.27313106464397974</v>
       </c>
       <c r="E6">
-        <v>2.1002567364400941</v>
+        <v>2.0745974024966918</v>
       </c>
       <c r="F6">
-        <v>5.8478192630223118</v>
+        <v>5.7794404697528599</v>
       </c>
       <c r="G6">
         <v>1988.3363317174199</v>
       </c>
       <c r="H6">
-        <v>1882.3594923008802</v>
+        <v>1812.1913340479584</v>
       </c>
       <c r="I6">
-        <v>0.31066431714774623</v>
+        <v>0.31891999267224785</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1169,49 +1153,46 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>5.8478192630223118</v>
+        <v>5.7794404697528599</v>
       </c>
       <c r="P6">
-        <v>0.31066431714774623</v>
+        <v>0.31891999267224785</v>
       </c>
       <c r="Q6">
-        <v>1.5171421862120986</v>
+        <v>1.4978583017723508</v>
       </c>
       <c r="R6">
-        <v>0.58311455022799552</v>
+        <v>0.57673910072434098</v>
       </c>
       <c r="S6">
-        <v>3.4714121880441495</v>
+        <v>3.4317120026121883</v>
       </c>
       <c r="T6">
-        <v>0.27615033853806825</v>
+        <v>0.27313106464397974</v>
       </c>
       <c r="U6">
-        <v>2.1002567364400941</v>
+        <v>2.0745974024966918</v>
       </c>
       <c r="V6">
-        <v>5.8478192630223109</v>
+        <v>5.7794404697528572</v>
       </c>
       <c r="W6">
-        <v>0.31066431714774617</v>
+        <v>0.31891999267224774</v>
       </c>
       <c r="X6">
-        <v>3.4714121880441495</v>
+        <v>3.4317120026121883</v>
       </c>
       <c r="Y6">
-        <v>0.26647782230205885</v>
+        <v>0.26356430230968975</v>
       </c>
       <c r="Z6">
-        <v>1.8548160750135274</v>
+        <v>1.8309899093743689</v>
       </c>
       <c r="AA6">
-        <v>5.5927060853597359</v>
-      </c>
-      <c r="AB6">
-        <v>4.7647385404290983</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+        <v>5.5262662142962471</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1234,37 +1215,37 @@
         <v>68.955083280192198</v>
       </c>
       <c r="H7">
-        <v>65.279828912422801</v>
+        <v>62.846412030798582</v>
       </c>
       <c r="I7">
-        <v>0.42279522572014128</v>
+        <v>0.4391658824767008</v>
       </c>
       <c r="J7">
-        <v>0.32270144019428559</v>
+        <v>0.35604967844313978</v>
       </c>
       <c r="K7">
-        <v>2.1476235156571748E-2</v>
+        <v>2.1476235156571755E-2</v>
       </c>
       <c r="L7">
         <v>1.0078910905329572E-2</v>
       </c>
       <c r="M7">
-        <v>0.35425658625618694</v>
+        <v>0.38760482450504113</v>
       </c>
       <c r="N7">
-        <v>0.5426738889457654</v>
+        <v>0.61674932900718515</v>
       </c>
       <c r="O7">
-        <v>0.63025658625618697</v>
+        <v>0.66360482450504121</v>
       </c>
       <c r="P7">
-        <v>0.96546911466590668</v>
+        <v>1.0559152114838859</v>
       </c>
       <c r="Q7">
-        <v>6.3197971813904921E-2</v>
+        <v>6.0953989816831727E-2</v>
       </c>
       <c r="R7">
-        <v>0.12680202818609509</v>
+        <v>0.12904601018316827</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1279,7 +1260,7 @@
         <v>0.27600000000000002</v>
       </c>
       <c r="W7">
-        <v>0.42279522572014128</v>
+        <v>0.4391658824767008</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -1293,11 +1274,8 @@
       <c r="AA7">
         <v>0.27100000000000002</v>
       </c>
-      <c r="AB7">
-        <v>29.889298892988929</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1320,13 +1298,13 @@
         <v>28.407867534003501</v>
       </c>
       <c r="H8">
-        <v>26.893749440503171</v>
+        <v>25.891239094060793</v>
       </c>
       <c r="I8">
-        <v>1.4873344487904776E-2</v>
+        <v>1.5449241287635255E-2</v>
       </c>
       <c r="J8">
-        <v>0.12080646267430326</v>
+        <v>0.13329070413550798</v>
       </c>
       <c r="K8">
         <v>8.6341719406932537E-3</v>
@@ -1335,16 +1313,16 @@
         <v>3.0503740378683393E-3</v>
       </c>
       <c r="M8">
-        <v>0.13249100865286484</v>
+        <v>0.14497525011406956</v>
       </c>
       <c r="N8">
-        <v>0.49264610331100783</v>
+        <v>0.55993940493688277</v>
       </c>
       <c r="O8">
-        <v>0.13649100865286484</v>
+        <v>0.14897525011406956</v>
       </c>
       <c r="P8">
-        <v>0.50751944779891256</v>
+        <v>0.57538864622451802</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -1365,7 +1343,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="W8">
-        <v>1.4873344487904776E-2</v>
+        <v>1.5449241287635255E-2</v>
       </c>
       <c r="X8">
         <v>1E-3</v>
@@ -1379,11 +1357,8 @@
       <c r="AA8">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AB8">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1394,25 +1369,25 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.39072734790265895</v>
+        <v>7.1826208082704984E-2</v>
       </c>
       <c r="E9">
-        <v>1.3067698946608419</v>
+        <v>1.2630191810595379</v>
       </c>
       <c r="F9">
-        <v>1.6974972425635009</v>
+        <v>1.3348453891422429</v>
       </c>
       <c r="G9">
         <v>281.77788712145099</v>
       </c>
       <c r="H9">
-        <v>266.75933647775344</v>
+        <v>256.81542756238696</v>
       </c>
       <c r="I9">
-        <v>0.63634033019311576</v>
+        <v>0.51976838066629594</v>
       </c>
       <c r="J9">
-        <v>1.1305567868056206</v>
+        <v>1.2473894760478934</v>
       </c>
       <c r="K9">
         <v>8.6248244841722319E-2</v>
@@ -1421,19 +1396,19 @@
         <v>2.0938634007857289E-2</v>
       </c>
       <c r="M9">
-        <v>1.2377436656552001</v>
+        <v>1.354576354897473</v>
       </c>
       <c r="N9">
-        <v>0.46399263170997673</v>
+        <v>0.52745131698461234</v>
       </c>
       <c r="O9">
-        <v>2.935240908218701</v>
+        <v>2.6894217440397159</v>
       </c>
       <c r="P9">
-        <v>1.1003329619030924</v>
+        <v>1.0472196976509081</v>
       </c>
       <c r="Q9">
-        <v>1.3067698946608419</v>
+        <v>1.2630191810595379</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1442,34 +1417,31 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0.39072734790265895</v>
+        <v>7.1826208082704984E-2</v>
       </c>
       <c r="U9">
-        <v>1.304269894660842</v>
+        <v>1.2630191810595379</v>
       </c>
       <c r="V9">
-        <v>1.6949972425635007</v>
+        <v>1.3348453891422427</v>
       </c>
       <c r="W9">
-        <v>0.63540315587224294</v>
+        <v>0.51976838066629583</v>
       </c>
       <c r="X9">
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>0.37311426622351807</v>
+        <v>5.423244919440301E-2</v>
       </c>
       <c r="Z9">
-        <v>1.3067698946608419</v>
+        <v>1.2630191810595379</v>
       </c>
       <c r="AA9">
-        <v>1.67988416088436</v>
-      </c>
-      <c r="AB9">
-        <v>22.210713983224618</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+        <v>1.317251630253941</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1492,31 +1464,31 @@
         <v>398.30327276446002</v>
       </c>
       <c r="H10">
-        <v>377.07400621457919</v>
+        <v>363.01792997125415</v>
       </c>
       <c r="I10">
-        <v>2.3229594252216232</v>
+        <v>2.4129045549116395</v>
       </c>
       <c r="J10">
-        <v>1.955654460282918</v>
+        <v>2.1577534370791915</v>
       </c>
       <c r="K10">
-        <v>0.13419488105625987</v>
+        <v>0.1341948810562599</v>
       </c>
       <c r="L10">
         <v>6.2215848846367237E-2</v>
       </c>
       <c r="M10">
-        <v>2.152065190185545</v>
+        <v>2.3541641669818185</v>
       </c>
       <c r="N10">
-        <v>0.57072753749058014</v>
+        <v>0.64849804172709458</v>
       </c>
       <c r="O10">
-        <v>10.911341357607881</v>
+        <v>11.113440334404157</v>
       </c>
       <c r="P10">
-        <v>2.893686962712203</v>
+        <v>3.0614025966387346</v>
       </c>
       <c r="Q10">
         <v>8.3473545654388523</v>
@@ -1537,25 +1509,22 @@
         <v>4.7380440619052058</v>
       </c>
       <c r="W10">
-        <v>1.2565289528891461</v>
+        <v>1.3051818300766551</v>
       </c>
       <c r="X10">
-        <v>0.12268788035438494</v>
+        <v>0.12233498151562401</v>
       </c>
       <c r="Y10">
         <v>0.23444495461873355</v>
       </c>
       <c r="Z10">
-        <v>4.5427907668030718</v>
+        <v>4.5104298254855468</v>
       </c>
       <c r="AA10">
-        <v>4.89992360177619</v>
-      </c>
-      <c r="AB10">
-        <v>4.7846655105754872</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+        <v>4.8672097616199039</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1569,22 +1538,22 @@
         <v>0.316</v>
       </c>
       <c r="E11">
-        <v>0.8891492692322257</v>
+        <v>0.88882216729857821</v>
       </c>
       <c r="F11">
-        <v>1.2051492692322257</v>
+        <v>1.2048221672985782</v>
       </c>
       <c r="G11">
         <v>37.191166151980006</v>
       </c>
       <c r="H11">
-        <v>35.208904811114273</v>
+        <v>33.896432876394464</v>
       </c>
       <c r="I11">
-        <v>3.4228536096124196</v>
+        <v>3.554421704761797</v>
       </c>
       <c r="J11">
-        <v>0.15330797338011218</v>
+        <v>0.16915094829417177</v>
       </c>
       <c r="K11">
         <v>1.1278483824776919E-2</v>
@@ -1593,19 +1562,19 @@
         <v>1.9568230187957535E-3</v>
       </c>
       <c r="M11">
-        <v>0.16654328022368486</v>
+        <v>0.18238625513774445</v>
       </c>
       <c r="N11">
-        <v>0.47301465671011933</v>
+        <v>0.53806917029537515</v>
       </c>
       <c r="O11">
-        <v>1.3716925494559105</v>
+        <v>1.3872084224363226</v>
       </c>
       <c r="P11">
-        <v>3.8958682663225384</v>
+        <v>4.0924908750571722</v>
       </c>
       <c r="Q11">
-        <v>0.8891492692322257</v>
+        <v>0.88882216729857821</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1617,31 +1586,28 @@
         <v>0.10731250000000001</v>
       </c>
       <c r="U11">
-        <v>0.5091492692322257</v>
+        <v>0.58882216729857828</v>
       </c>
       <c r="V11">
-        <v>0.61646176923222573</v>
+        <v>0.69613466729857831</v>
       </c>
       <c r="W11">
-        <v>1.7508689138141817</v>
+        <v>2.0537106952730939</v>
       </c>
       <c r="X11">
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>3.5243552967906849E-2</v>
+        <v>3.5228882610280718E-2</v>
       </c>
       <c r="Z11">
-        <v>0.48914926923222574</v>
+        <v>0.48882216729857819</v>
       </c>
       <c r="AA11">
-        <v>0.52439282220013261</v>
-      </c>
-      <c r="AB11">
-        <v>6.7208305445600232</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+        <v>0.52405104990885887</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1649,25 +1615,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>74.819999999999993</v>
+        <v>77.180499999999995</v>
       </c>
       <c r="D12">
         <v>2.2115</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="F12">
-        <v>77.031499999999994</v>
+        <v>84.99199999999999</v>
       </c>
       <c r="G12">
         <v>17177.419592825001</v>
       </c>
       <c r="H12">
-        <v>16261.875975409448</v>
+        <v>15655.686832687752</v>
       </c>
       <c r="I12">
-        <v>0.4736938107047669</v>
+        <v>0.54288260175557346</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1685,16 +1651,16 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>77.031499999999994</v>
+        <v>84.99199999999999</v>
       </c>
       <c r="P12">
-        <v>0.4736938107047669</v>
+        <v>0.54288260175557346</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="S12">
         <v>37.695</v>
@@ -1709,7 +1675,7 @@
         <v>39.906500000000001</v>
       </c>
       <c r="W12">
-        <v>0.24539911668460024</v>
+        <v>0.25490098535107764</v>
       </c>
       <c r="X12">
         <v>25.32</v>
@@ -1723,11 +1689,8 @@
       <c r="AA12">
         <v>27.531500000000001</v>
       </c>
-      <c r="AB12">
-        <v>8.0326171839529259</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1738,43 +1701,43 @@
         <v>9.2799999999999994E-2</v>
       </c>
       <c r="D13">
-        <v>0.18195236953810767</v>
+        <v>0.18137175619500776</v>
       </c>
       <c r="E13">
         <v>1.6439999999999999</v>
       </c>
       <c r="F13">
-        <v>1.9187523695381077</v>
+        <v>1.9181717561950076</v>
       </c>
       <c r="G13">
         <v>297.30188352325098</v>
       </c>
       <c r="H13">
-        <v>281.45591548163492</v>
+        <v>270.96416653595605</v>
       </c>
       <c r="I13">
-        <v>0.68172394467342678</v>
+        <v>0.70790606031682513</v>
       </c>
       <c r="J13">
-        <v>1.3111880641011244</v>
+        <v>1.4466873414652806</v>
       </c>
       <c r="K13">
-        <v>0.10058245397555456</v>
+        <v>0.1005824539755546</v>
       </c>
       <c r="L13">
         <v>3.504476970407009E-2</v>
       </c>
       <c r="M13">
-        <v>1.4468152877807492</v>
+        <v>1.5823145651449053</v>
       </c>
       <c r="N13">
-        <v>0.51404685714454423</v>
+        <v>0.58395712812267275</v>
       </c>
       <c r="O13">
-        <v>3.3655676573188567</v>
+        <v>3.5004863213399129</v>
       </c>
       <c r="P13">
-        <v>1.1957708018179711</v>
+        <v>1.291863188439498</v>
       </c>
       <c r="Q13">
         <v>1.6140000000000001</v>
@@ -1786,34 +1749,31 @@
         <v>9.2799999999999994E-2</v>
       </c>
       <c r="T13">
-        <v>0.18195236953810767</v>
+        <v>0.18137175619500776</v>
       </c>
       <c r="U13">
         <v>1.6439999999999999</v>
       </c>
       <c r="V13">
-        <v>1.9187523695381077</v>
+        <v>1.9181717561950078</v>
       </c>
       <c r="W13">
-        <v>0.68172394467342678</v>
+        <v>0.70790606031682524</v>
       </c>
       <c r="X13">
         <v>9.2799999999999994E-2</v>
       </c>
       <c r="Y13">
-        <v>0.13195236953810766</v>
+        <v>0.13137175619500774</v>
       </c>
       <c r="Z13">
         <v>1.6147</v>
       </c>
       <c r="AA13">
-        <v>1.8394523695381078</v>
-      </c>
-      <c r="AB13">
-        <v>7.1734594340837052</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+        <v>1.8388717561950076</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1824,25 +1784,25 @@
         <v>0.7994</v>
       </c>
       <c r="D14">
-        <v>0.36252412946984758</v>
+        <v>0.36088305501184831</v>
       </c>
       <c r="E14">
-        <v>0.58285638390162231</v>
+        <v>0.63541445816068232</v>
       </c>
       <c r="F14">
-        <v>1.74478051337147</v>
+        <v>1.7956975131725308</v>
       </c>
       <c r="G14">
         <v>2957.8797592635201</v>
       </c>
       <c r="H14">
-        <v>2800.2269802740889</v>
+        <v>2695.8437470502372</v>
       </c>
       <c r="I14">
-        <v>6.2308538759978993E-2</v>
+        <v>6.6609851373521309E-2</v>
       </c>
       <c r="J14">
-        <v>13.049852334138802</v>
+        <v>14.398435050377119</v>
       </c>
       <c r="K14">
         <v>0.97199192832216663</v>
@@ -1851,19 +1811,19 @@
         <v>0.44328818245157275</v>
       </c>
       <c r="M14">
-        <v>14.465132444912541</v>
+        <v>15.813715161150858</v>
       </c>
       <c r="N14">
-        <v>0.51656999760414712</v>
+        <v>0.58659613260056531</v>
       </c>
       <c r="O14">
-        <v>16.209912958284011</v>
+        <v>17.609412674323387</v>
       </c>
       <c r="P14">
-        <v>0.57887853636412601</v>
+        <v>0.65320598397408658</v>
       </c>
       <c r="Q14">
-        <v>0.58285638390162231</v>
+        <v>0.63541445816068232</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -1872,34 +1832,31 @@
         <v>0.7994</v>
       </c>
       <c r="T14">
-        <v>0.36252412946984758</v>
+        <v>0.36088305501184831</v>
       </c>
       <c r="U14">
-        <v>0.58285638390162231</v>
+        <v>0.63541445816068232</v>
       </c>
       <c r="V14">
-        <v>1.74478051337147</v>
+        <v>1.7956975131725303</v>
       </c>
       <c r="W14">
-        <v>6.2308538759978993E-2</v>
+        <v>6.6609851373521295E-2</v>
       </c>
       <c r="X14">
         <v>0.7994</v>
       </c>
       <c r="Y14">
-        <v>0.41102412946984757</v>
+        <v>0.40938305501184835</v>
       </c>
       <c r="Z14">
-        <v>0.58956752538135537</v>
+        <v>0.63442008953603957</v>
       </c>
       <c r="AA14">
-        <v>1.7999916548512029</v>
-      </c>
-      <c r="AB14">
-        <v>22.834779725899619</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+        <v>1.8432031445478878</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1910,25 +1867,25 @@
         <v>1.407</v>
       </c>
       <c r="D15">
-        <v>2.8983400499999998</v>
+        <v>2.9463400499999999</v>
       </c>
       <c r="E15">
         <v>17.702100000000002</v>
       </c>
       <c r="F15">
-        <v>22.00744005</v>
+        <v>22.055440050000001</v>
       </c>
       <c r="G15">
         <v>4259.9349118216405</v>
       </c>
       <c r="H15">
-        <v>4032.8835669995651</v>
+        <v>3882.5509586416701</v>
       </c>
       <c r="I15">
-        <v>0.54569986175855234</v>
+        <v>0.56806569404864193</v>
       </c>
       <c r="J15">
-        <v>15.459866896627672</v>
+        <v>17.05750254477946</v>
       </c>
       <c r="K15">
         <v>1.4434118505035538</v>
@@ -1937,16 +1894,16 @@
         <v>0.44328818245157275</v>
       </c>
       <c r="M15">
-        <v>17.346566929582796</v>
+        <v>18.944202577734586</v>
       </c>
       <c r="N15">
-        <v>0.43012813639171116</v>
+        <v>0.48793184634368092</v>
       </c>
       <c r="O15">
-        <v>39.354006979582792</v>
+        <v>40.999642627734588</v>
       </c>
       <c r="P15">
-        <v>0.97582799815026344</v>
+        <v>1.0559975403923227</v>
       </c>
       <c r="Q15">
         <v>17.576000000000001</v>
@@ -1958,16 +1915,16 @@
         <v>1.407</v>
       </c>
       <c r="T15">
-        <v>2.8983400499999998</v>
+        <v>2.9463400499999999</v>
       </c>
       <c r="U15">
         <v>9.8270999999999997</v>
       </c>
       <c r="V15">
-        <v>14.13244005</v>
+        <v>14.18044005</v>
       </c>
       <c r="W15">
-        <v>0.35043015289713481</v>
+        <v>0.36523513022894355</v>
       </c>
       <c r="X15">
         <v>1.407</v>
@@ -1976,16 +1933,13 @@
         <v>2.9463400499999999</v>
       </c>
       <c r="Z15">
-        <v>9.3687672896199263</v>
+        <v>9.3570368730606344</v>
       </c>
       <c r="AA15">
-        <v>13.722107339619926</v>
-      </c>
-      <c r="AB15">
-        <v>21.471483767606262</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+        <v>13.710376923060634</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1999,22 +1953,22 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.19224487266874943</v>
+        <v>0.18507861738971931</v>
       </c>
       <c r="F16">
-        <v>0.19224487266874943</v>
+        <v>0.18507861738971931</v>
       </c>
       <c r="G16">
         <v>214.873879833648</v>
       </c>
       <c r="H16">
-        <v>203.42126274131212</v>
+        <v>195.8383884739774</v>
       </c>
       <c r="I16">
         <v>9.4505790632724782E-2</v>
       </c>
       <c r="J16">
-        <v>1.1068141577984956</v>
+        <v>1.221193263789615</v>
       </c>
       <c r="K16">
         <v>7.016532635721659E-2</v>
@@ -2023,19 +1977,19 @@
         <v>3.3329953962984424E-2</v>
       </c>
       <c r="M16">
-        <v>1.2103094381186965</v>
+        <v>1.324688544109816</v>
       </c>
       <c r="N16">
-        <v>0.5949768582735766</v>
+        <v>0.67641924263783337</v>
       </c>
       <c r="O16">
-        <v>1.4025543107874459</v>
+        <v>1.5097671614995352</v>
       </c>
       <c r="P16">
-        <v>0.6894826489063014</v>
+        <v>0.77092503327055806</v>
       </c>
       <c r="Q16">
-        <v>0.19224487266874943</v>
+        <v>0.18507861738971931</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -2047,10 +2001,10 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>0.19224487266874943</v>
+        <v>0.18507861738971931</v>
       </c>
       <c r="V16">
-        <v>0.19224487266874943</v>
+        <v>0.18507861738971931</v>
       </c>
       <c r="W16">
         <v>9.4505790632724782E-2</v>
@@ -2062,16 +2016,13 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0.19224487266874943</v>
+        <v>0.18507861738971931</v>
       </c>
       <c r="AA16">
-        <v>0.19224487266874943</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
+        <v>0.18507861738971931</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2082,25 +2033,25 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.4184625027067918E-2</v>
+        <v>5.3886109652716604E-2</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>5.4184625027067918E-2</v>
+        <v>5.3886109652716604E-2</v>
       </c>
       <c r="G17">
         <v>181.84802223389002</v>
       </c>
       <c r="H17">
-        <v>172.15565865179403</v>
+        <v>165.73826306406309</v>
       </c>
       <c r="I17">
-        <v>3.147420506035354E-2</v>
+        <v>3.2512775659949998E-2</v>
       </c>
       <c r="J17">
-        <v>0.91141948241967496</v>
+        <v>1.0056063383137159</v>
       </c>
       <c r="K17">
         <v>5.6585432151435244E-2</v>
@@ -2109,16 +2060,16 @@
         <v>1.9808902924699789E-2</v>
       </c>
       <c r="M17">
-        <v>0.9878138174958101</v>
+        <v>1.0820006733898508</v>
       </c>
       <c r="N17">
-        <v>0.57379108257706768</v>
+        <v>0.65283698126583078</v>
       </c>
       <c r="O17">
-        <v>1.0419984425228781</v>
+        <v>1.1358867830425674</v>
       </c>
       <c r="P17">
-        <v>0.60526528763742127</v>
+        <v>0.68534975692578071</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -2130,34 +2081,31 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>5.4184625027067918E-2</v>
+        <v>5.3886109652716604E-2</v>
       </c>
       <c r="U17">
         <v>0</v>
       </c>
       <c r="V17">
-        <v>5.4184625027067918E-2</v>
+        <v>5.3886109652716604E-2</v>
       </c>
       <c r="W17">
-        <v>3.147420506035354E-2</v>
+        <v>3.2512775659949998E-2</v>
       </c>
       <c r="X17">
         <v>0</v>
       </c>
       <c r="Y17">
-        <v>5.4184625027067918E-2</v>
+        <v>5.3886109652716604E-2</v>
       </c>
       <c r="Z17">
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>5.4184625027067918E-2</v>
-      </c>
-      <c r="AB17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
+        <v>5.3886109652716604E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -2165,25 +2113,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.6587030716723532E-3</v>
+        <v>9.4057431534166451E-3</v>
       </c>
       <c r="D18">
-        <v>1.1331058020477815E-2</v>
+        <v>1.1034299388460515E-2</v>
       </c>
       <c r="E18">
-        <v>1.6979486726641613E-2</v>
+        <v>1.654147842425616E-2</v>
       </c>
       <c r="F18">
-        <v>3.7969247818791782E-2</v>
+        <v>3.6981520966133316E-2</v>
       </c>
       <c r="G18">
         <v>25.602419210337398</v>
       </c>
       <c r="H18">
-        <v>24.237829414311651</v>
+        <v>23.334323013431828</v>
       </c>
       <c r="I18">
-        <v>0.15665283870828867</v>
+        <v>0.15848551057104085</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -2201,49 +2149,46 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.7969247818791782E-2</v>
+        <v>3.6981520966133316E-2</v>
       </c>
       <c r="P18">
-        <v>0.15665283870828867</v>
+        <v>0.15848551057104085</v>
       </c>
       <c r="Q18">
-        <v>1.6439486726641615E-2</v>
+        <v>1.6001478424256158E-2</v>
       </c>
       <c r="R18">
-        <v>5.3999999999999881E-4</v>
+        <v>5.4000000000000228E-4</v>
       </c>
       <c r="S18">
-        <v>9.6587030716723532E-3</v>
+        <v>9.4057431534166451E-3</v>
       </c>
       <c r="T18">
-        <v>1.1331058020477815E-2</v>
+        <v>1.1034299388460515E-2</v>
       </c>
       <c r="U18">
-        <v>1.6979486726641613E-2</v>
+        <v>1.654147842425616E-2</v>
       </c>
       <c r="V18">
-        <v>3.7969247818791782E-2</v>
+        <v>3.6981520966133316E-2</v>
       </c>
       <c r="W18">
-        <v>0.15665283870828867</v>
+        <v>0.15848551057104085</v>
       </c>
       <c r="X18">
-        <v>9.6587030716723532E-3</v>
+        <v>9.4057431534166451E-3</v>
       </c>
       <c r="Y18">
-        <v>1.1331058020477815E-2</v>
+        <v>1.1034299388460515E-2</v>
       </c>
       <c r="Z18">
-        <v>1.6979486726641613E-2</v>
+        <v>1.654147842425616E-2</v>
       </c>
       <c r="AA18">
-        <v>3.7969247818791782E-2</v>
-      </c>
-      <c r="AB18">
-        <v>29.842724497875977</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
+        <v>3.6981520966133316E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -2254,25 +2199,25 @@
         <v>0.04</v>
       </c>
       <c r="D19">
-        <v>7.5787571807251722E-2</v>
+        <v>7.5681684651841039E-2</v>
       </c>
       <c r="E19">
         <v>3.8500000000000001E-3</v>
       </c>
       <c r="F19">
-        <v>0.11963757180725172</v>
+        <v>0.11953168465184104</v>
       </c>
       <c r="G19">
         <v>504.18260327554196</v>
       </c>
       <c r="H19">
-        <v>477.3100475958932</v>
+        <v>459.51750207395366</v>
       </c>
       <c r="I19">
-        <v>2.5064959853629758E-2</v>
+        <v>2.6012433500868896E-2</v>
       </c>
       <c r="J19">
-        <v>1.5531866005936981</v>
+        <v>1.7136942102602128</v>
       </c>
       <c r="K19">
         <v>0.11972368502737039</v>
@@ -2281,16 +2226,16 @@
         <v>1.5553949486203832E-2</v>
       </c>
       <c r="M19">
-        <v>1.6884642351072723</v>
+        <v>1.8489718447737871</v>
       </c>
       <c r="N19">
-        <v>0.3537457976448849</v>
+        <v>0.40237245293786827</v>
       </c>
       <c r="O19">
-        <v>1.808101806914524</v>
+        <v>1.9685035294256281</v>
       </c>
       <c r="P19">
-        <v>0.37881075749851467</v>
+        <v>0.42838488643873712</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -2302,34 +2247,31 @@
         <v>0.04</v>
       </c>
       <c r="T19">
-        <v>7.5787571807251722E-2</v>
+        <v>7.5681684651841039E-2</v>
       </c>
       <c r="U19">
         <v>3.8500000000000001E-3</v>
       </c>
       <c r="V19">
-        <v>0.11963757180725172</v>
+        <v>0.11953168465184104</v>
       </c>
       <c r="W19">
-        <v>2.5064959853629758E-2</v>
+        <v>2.6012433500868896E-2</v>
       </c>
       <c r="X19">
         <v>0.04</v>
       </c>
       <c r="Y19">
-        <v>5.6287571807251718E-2</v>
+        <v>5.6181684651841049E-2</v>
       </c>
       <c r="Z19">
         <v>3.8500000000000001E-3</v>
       </c>
       <c r="AA19">
-        <v>0.10013757180725173</v>
-      </c>
-      <c r="AB19">
-        <v>56.210242360975151</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
+        <v>0.10003168465184105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -2340,46 +2282,46 @@
         <v>0.41</v>
       </c>
       <c r="D20">
-        <v>0.22271678784436241</v>
+        <v>0.2217827533722202</v>
       </c>
       <c r="E20">
-        <v>0.68590448280084992</v>
+        <v>0.66592772984190474</v>
       </c>
       <c r="F20">
-        <v>1.3186212706452123</v>
+        <v>1.2977104832141251</v>
       </c>
       <c r="G20">
         <v>2107.7028426697298</v>
       </c>
       <c r="H20">
-        <v>1995.3638574928805</v>
+        <v>1920.9832689297575</v>
       </c>
       <c r="I20">
-        <v>6.608425153605936E-2</v>
+        <v>6.7554491712836312E-2</v>
       </c>
       <c r="J20">
-        <v>9.4063778967113443</v>
+        <v>10.378440900116063</v>
       </c>
       <c r="K20">
-        <v>0.70256598675444948</v>
+        <v>0.70256598675444959</v>
       </c>
       <c r="L20">
         <v>0.44328818245157275</v>
       </c>
       <c r="M20">
-        <v>10.552232065917366</v>
+        <v>11.524295069322084</v>
       </c>
       <c r="N20">
-        <v>0.5288374862705969</v>
+        <v>0.59991647276254756</v>
       </c>
       <c r="O20">
-        <v>11.870853336562579</v>
+        <v>12.82200555253621</v>
       </c>
       <c r="P20">
-        <v>0.59492173780665636</v>
+        <v>0.6674709644753839</v>
       </c>
       <c r="Q20">
-        <v>0.68590448280084992</v>
+        <v>0.66592772984190474</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -2388,34 +2330,31 @@
         <v>0.41</v>
       </c>
       <c r="T20">
-        <v>0.22271678784436241</v>
+        <v>0.2217827533722202</v>
       </c>
       <c r="U20">
-        <v>0.68590448280084992</v>
+        <v>0.66592772984190474</v>
       </c>
       <c r="V20">
-        <v>1.3186212706452123</v>
+        <v>1.2977104832141246</v>
       </c>
       <c r="W20">
-        <v>6.608425153605936E-2</v>
+        <v>6.7554491712836284E-2</v>
       </c>
       <c r="X20">
         <v>0.41</v>
       </c>
       <c r="Y20">
-        <v>0.22271678784436241</v>
+        <v>0.2217827533722202</v>
       </c>
       <c r="Z20">
-        <v>0.68590448280084992</v>
+        <v>0.66592772984190474</v>
       </c>
       <c r="AA20">
-        <v>1.3186212706452123</v>
-      </c>
-      <c r="AB20">
-        <v>16.890125527505351</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
+        <v>1.2977104832141251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -2423,25 +2362,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.7697150430748838</v>
+        <v>5.5546390812978483</v>
       </c>
       <c r="D21">
-        <v>1.9825040045441638</v>
+        <v>1.9086027889172439</v>
       </c>
       <c r="E21">
-        <v>6.575026034270566E-2</v>
+        <v>6.3299307327743345E-2</v>
       </c>
       <c r="F21">
-        <v>7.8179693079617536</v>
+        <v>7.5265411775428355</v>
       </c>
       <c r="G21">
         <v>4940.8777807553297</v>
       </c>
       <c r="H21">
-        <v>4677.532690291896</v>
+        <v>4503.1696871630784</v>
       </c>
       <c r="I21">
-        <v>0.16713874227298842</v>
+        <v>0.16713874227298839</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2459,49 +2398,46 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>7.8179693079617536</v>
+        <v>7.5265411775428355</v>
       </c>
       <c r="P21">
-        <v>0.16713874227298842</v>
+        <v>0.16713874227298839</v>
       </c>
       <c r="Q21">
-        <v>3.072233267064281E-2</v>
+        <v>2.9577105359095884E-2</v>
       </c>
       <c r="R21">
-        <v>3.502792767206285E-2</v>
+        <v>3.3722201968647461E-2</v>
       </c>
       <c r="S21">
-        <v>5.7697150430748838</v>
+        <v>5.5546390812978483</v>
       </c>
       <c r="T21">
-        <v>1.9825040045441638</v>
+        <v>1.9086027889172439</v>
       </c>
       <c r="U21">
-        <v>6.575026034270566E-2</v>
+        <v>6.3299307327743345E-2</v>
       </c>
       <c r="V21">
-        <v>7.8179693079617527</v>
+        <v>7.5265411775428372</v>
       </c>
       <c r="W21">
-        <v>0.16713874227298839</v>
+        <v>0.16713874227298844</v>
       </c>
       <c r="X21">
-        <v>4.904430559500141</v>
+        <v>4.7216095515858543</v>
       </c>
       <c r="Y21">
-        <v>1.0358032566505728</v>
+        <v>0.99719192489974484</v>
       </c>
       <c r="Z21">
-        <v>6.575026034270566E-2</v>
+        <v>6.3299307327743345E-2</v>
       </c>
       <c r="AA21">
-        <v>6.0059840764934203</v>
-      </c>
-      <c r="AB21">
-        <v>17.24618719361181</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
+        <v>5.7821007838133429</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -2512,25 +2448,25 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="D22">
-        <v>7.6209971693647635E-3</v>
+        <v>7.6181157856361655E-3</v>
       </c>
       <c r="E22">
-        <v>0.37728879184481329</v>
+        <v>0.37557692461326198</v>
       </c>
       <c r="F22">
-        <v>0.42090978901417803</v>
+        <v>0.41919504039889816</v>
       </c>
       <c r="G22">
         <v>39.853501579821099</v>
       </c>
       <c r="H22">
-        <v>37.729339751795038</v>
+        <v>36.322914308987514</v>
       </c>
       <c r="I22">
-        <v>1.1156033786521602</v>
+        <v>1.1540787637052987</v>
       </c>
       <c r="J22">
-        <v>0.15705391020722234</v>
+        <v>0.17328399338364486</v>
       </c>
       <c r="K22">
         <v>1.2420911017303396E-2</v>
@@ -2539,55 +2475,52 @@
         <v>2.5339399187564388E-3</v>
       </c>
       <c r="M22">
-        <v>0.17200876114328217</v>
+        <v>0.1882388443197047</v>
       </c>
       <c r="N22">
-        <v>0.45590185853994059</v>
+        <v>0.51823717314755235</v>
       </c>
       <c r="O22">
-        <v>0.5929185501574602</v>
+        <v>0.60743388471860282</v>
       </c>
       <c r="P22">
-        <v>1.5715052371921008</v>
+        <v>1.6723159368528511</v>
       </c>
       <c r="Q22">
-        <v>0.37128879184481328</v>
+        <v>0.36957692461326197</v>
       </c>
       <c r="R22">
         <v>6.0000000000000053E-3</v>
       </c>
       <c r="S22">
-        <v>3.2000000000000001E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="T22">
-        <v>7.6209971693647635E-3</v>
+        <v>7.6181157856361655E-3</v>
       </c>
       <c r="U22">
-        <v>0.37328879184481328</v>
+        <v>0.37357692461326197</v>
       </c>
       <c r="V22">
-        <v>0.41290978901417802</v>
+        <v>0.4171950403988981</v>
       </c>
       <c r="W22">
-        <v>1.0943997210938023</v>
+        <v>1.1485725975893679</v>
       </c>
       <c r="X22">
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="Y22">
-        <v>7.6209971693647635E-3</v>
+        <v>7.6181157856361655E-3</v>
       </c>
       <c r="Z22">
-        <v>0.37728879184481329</v>
+        <v>0.37557692461326198</v>
       </c>
       <c r="AA22">
-        <v>0.42090978901417803</v>
-      </c>
-      <c r="AB22">
-        <v>1.8106010761151616</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
+        <v>0.41919504039889816</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -2598,25 +2531,25 @@
         <v>4.1500000000000002E-2</v>
       </c>
       <c r="D23">
-        <v>6.7980644703209317E-2</v>
+        <v>6.7975774699234423E-2</v>
       </c>
       <c r="E23">
-        <v>0.82691543088620911</v>
+        <v>0.82475805333964358</v>
       </c>
       <c r="F23">
-        <v>0.9363960755894184</v>
+        <v>0.934233828038878</v>
       </c>
       <c r="G23">
         <v>66.445256585367105</v>
       </c>
       <c r="H23">
-        <v>62.903774103348582</v>
+        <v>60.558928714333859</v>
       </c>
       <c r="I23">
-        <v>1.4886166830800234</v>
+        <v>1.5426855261026962</v>
       </c>
       <c r="J23">
-        <v>0.25147355317291126</v>
+        <v>0.27746104166830543</v>
       </c>
       <c r="K23">
         <v>2.002813456983955E-2</v>
@@ -2625,55 +2558,52 @@
         <v>4.1521359658818419E-3</v>
       </c>
       <c r="M23">
-        <v>0.27565382370863262</v>
+        <v>0.30164131220402679</v>
       </c>
       <c r="N23">
-        <v>0.43821507952089417</v>
+        <v>0.49809552217628722</v>
       </c>
       <c r="O23">
-        <v>1.2120498992980511</v>
+        <v>1.2358751402429049</v>
       </c>
       <c r="P23">
-        <v>1.9268317626009175</v>
+        <v>2.0407810482789834</v>
       </c>
       <c r="Q23">
-        <v>0.73771441269688331</v>
+        <v>0.7328247687437095</v>
       </c>
       <c r="R23">
-        <v>8.9201018189325798E-2</v>
+        <v>9.1933284595934084E-2</v>
       </c>
       <c r="S23">
         <v>4.1500000000000002E-2</v>
       </c>
       <c r="T23">
-        <v>6.7980644703209317E-2</v>
+        <v>6.7975774699234423E-2</v>
       </c>
       <c r="U23">
-        <v>0.69358209755287592</v>
+        <v>0.69142472000631039</v>
       </c>
       <c r="V23">
-        <v>0.8030627422560852</v>
+        <v>0.8009004947055447</v>
       </c>
       <c r="W23">
-        <v>1.2766527187012384</v>
+        <v>1.3225143041805121</v>
       </c>
       <c r="X23">
         <v>4.1500000000000002E-2</v>
       </c>
       <c r="Y23">
-        <v>6.7980644703209317E-2</v>
+        <v>6.7975774699234423E-2</v>
       </c>
       <c r="Z23">
-        <v>0.62691543088620927</v>
+        <v>0.62475805333964374</v>
       </c>
       <c r="AA23">
-        <v>0.73639607558941855</v>
-      </c>
-      <c r="AB23">
-        <v>9.2315327249397612</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
+        <v>0.73423382803887816</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -2687,22 +2617,22 @@
         <v>1.8134999999999998E-2</v>
       </c>
       <c r="E24">
-        <v>0.11037344201595488</v>
+        <v>0.11035226808562923</v>
       </c>
       <c r="F24">
-        <v>0.12980844201595487</v>
+        <v>0.12978726808562924</v>
       </c>
       <c r="G24">
         <v>85.506243833781596</v>
       </c>
       <c r="H24">
-        <v>80.94882498701277</v>
+        <v>77.931319571437839</v>
       </c>
       <c r="I24">
-        <v>0.16035864885843742</v>
+        <v>0.16654057546998963</v>
       </c>
       <c r="J24">
-        <v>0.24651569560761832</v>
+        <v>0.27199083493223808</v>
       </c>
       <c r="K24">
         <v>1.8676229246147268E-2</v>
@@ -2711,19 +2641,19 @@
         <v>3.1108136487682709E-3</v>
       </c>
       <c r="M24">
-        <v>0.26830273850253383</v>
+        <v>0.29377787782715359</v>
       </c>
       <c r="N24">
-        <v>0.3314473539863978</v>
+        <v>0.37697023410190583</v>
       </c>
       <c r="O24">
-        <v>0.39811118051848871</v>
+        <v>0.42356514591278283</v>
       </c>
       <c r="P24">
-        <v>0.49180600284483522</v>
+        <v>0.54351080957189546</v>
       </c>
       <c r="Q24">
-        <v>0.11037344201595488</v>
+        <v>0.11035226808562923</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -2735,13 +2665,13 @@
         <v>1.8134999999999998E-2</v>
       </c>
       <c r="U24">
-        <v>0.11037344201595488</v>
+        <v>0.11035226808562923</v>
       </c>
       <c r="V24">
-        <v>0.12980844201595487</v>
+        <v>0.12978726808562924</v>
       </c>
       <c r="W24">
-        <v>0.16035864885843742</v>
+        <v>0.16654057546998963</v>
       </c>
       <c r="X24">
         <v>1.2999999999999999E-3</v>
@@ -2750,16 +2680,13 @@
         <v>1.8134999999999998E-2</v>
       </c>
       <c r="Z24">
-        <v>0.16037344201595491</v>
+        <v>0.16035226808562922</v>
       </c>
       <c r="AA24">
-        <v>0.17980844201595492</v>
-      </c>
-      <c r="AB24">
-        <v>10.085733348599298</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
+        <v>0.17978726808562923</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -2782,13 +2709,13 @@
         <v>17.3640449438202</v>
       </c>
       <c r="H25">
-        <v>16.438554334772508</v>
+        <v>15.825779205085857</v>
       </c>
       <c r="I25">
-        <v>1.2592348194642181E-2</v>
+        <v>1.3079924679694594E-2</v>
       </c>
       <c r="J25">
-        <v>6.417671181740231E-2</v>
+        <v>7.0808787194649683E-2</v>
       </c>
       <c r="K25">
         <v>4.867125471864628E-3</v>
@@ -2797,16 +2724,16 @@
         <v>1.1611214582666384E-3</v>
       </c>
       <c r="M25">
-        <v>7.0204958747533575E-2</v>
+        <v>7.6837034124780948E-2</v>
       </c>
       <c r="N25">
-        <v>0.4270750171688083</v>
+        <v>0.48551817341220194</v>
       </c>
       <c r="O25">
-        <v>7.2274958747533577E-2</v>
+        <v>7.890703412478095E-2</v>
       </c>
       <c r="P25">
-        <v>0.43966736536345052</v>
+        <v>0.49859809809189659</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -2827,7 +2754,7 @@
         <v>2.0699999999999998E-3</v>
       </c>
       <c r="W25">
-        <v>1.2592348194642181E-2</v>
+        <v>1.3079924679694594E-2</v>
       </c>
       <c r="X25">
         <v>0</v>
@@ -2841,11 +2768,8 @@
       <c r="AA25">
         <v>2.0699999999999998E-3</v>
       </c>
-      <c r="AB25">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -2853,28 +2777,28 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>1.0553807157057655</v>
+        <v>1.0546396281443675</v>
       </c>
       <c r="D26">
-        <v>0.71551580990248986</v>
+        <v>0.71525428363106081</v>
       </c>
       <c r="E26">
         <v>4.4433999999999996</v>
       </c>
       <c r="F26">
-        <v>6.2142965256082547</v>
+        <v>6.2132939117754278</v>
       </c>
       <c r="G26">
         <v>1012.84676097673</v>
       </c>
       <c r="H26">
-        <v>958.86278611827129</v>
+        <v>923.11954153912689</v>
       </c>
       <c r="I26">
-        <v>0.64809028106778044</v>
+        <v>0.67307576453380424</v>
       </c>
       <c r="J26">
-        <v>6.0818038753447796</v>
+        <v>6.7103026031338278</v>
       </c>
       <c r="K26">
         <v>0.32534429673166082</v>
@@ -2883,16 +2807,16 @@
         <v>0.12287640113448946</v>
       </c>
       <c r="M26">
-        <v>6.5300245732109303</v>
+        <v>7.1585233009999785</v>
       </c>
       <c r="N26">
-        <v>0.68101762501871477</v>
+        <v>0.77547088745023174</v>
       </c>
       <c r="O26">
-        <v>12.744321098819185</v>
+        <v>13.371817212775406</v>
       </c>
       <c r="P26">
-        <v>1.3291079060864952</v>
+        <v>1.448546651984036</v>
       </c>
       <c r="Q26">
         <v>4.3083999999999998</v>
@@ -2901,37 +2825,34 @@
         <v>0.13499999999999979</v>
       </c>
       <c r="S26">
-        <v>0.99338071570576547</v>
+        <v>1.0546396281443675</v>
       </c>
       <c r="T26">
-        <v>0.71551580990248986</v>
+        <v>0.71525428363106081</v>
       </c>
       <c r="U26">
         <v>4.4433999999999996</v>
       </c>
       <c r="V26">
-        <v>6.1522965256082554</v>
+        <v>6.2132939117754278</v>
       </c>
       <c r="W26">
-        <v>0.6416242881334846</v>
+        <v>0.67307576453380424</v>
       </c>
       <c r="X26">
-        <v>0.7158807157057655</v>
+        <v>0.71513962814436749</v>
       </c>
       <c r="Y26">
-        <v>0.56639080990248991</v>
+        <v>0.56612928363106085</v>
       </c>
       <c r="Z26">
-        <v>2.8243183131974461</v>
+        <v>2.8079792636447527</v>
       </c>
       <c r="AA26">
-        <v>4.1065898388057018</v>
-      </c>
-      <c r="AB26">
-        <v>13.792242033774924</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
+        <v>4.089248175420181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -2942,22 +2863,22 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>2.5507925876311673E-2</v>
+        <v>2.6056217572267518E-2</v>
       </c>
       <c r="E27">
-        <v>1.5594998883679391E-2</v>
+        <v>1.5930212668909288E-2</v>
       </c>
       <c r="F27">
-        <v>4.1102924759991062E-2</v>
+        <v>4.1986430241176806E-2</v>
       </c>
       <c r="G27">
         <v>249.885687029634</v>
       </c>
       <c r="H27">
-        <v>236.56696679885826</v>
+        <v>227.7485299212851</v>
       </c>
       <c r="I27">
-        <v>1.7374752407819872E-2</v>
+        <v>1.8435434141194345E-2</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2975,49 +2896,46 @@
         <v>0</v>
       </c>
       <c r="O27">
-        <v>4.1102924759991062E-2</v>
+        <v>4.1986430241176806E-2</v>
       </c>
       <c r="P27">
-        <v>1.7374752407819872E-2</v>
+        <v>1.8435434141194345E-2</v>
       </c>
       <c r="Q27">
-        <v>6.111855324849297E-3</v>
+        <v>6.2432293745367465E-3</v>
       </c>
       <c r="R27">
-        <v>9.4831435588300927E-3</v>
+        <v>9.6869832943725417E-3</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>2.5507925876311673E-2</v>
+        <v>2.6056217572267518E-2</v>
       </c>
       <c r="U27">
-        <v>1.5594998883679391E-2</v>
+        <v>1.5930212668909288E-2</v>
       </c>
       <c r="V27">
-        <v>4.1102924759991062E-2</v>
+        <v>4.1986430241176799E-2</v>
       </c>
       <c r="W27">
-        <v>1.7374752407819872E-2</v>
+        <v>1.8435434141194338E-2</v>
       </c>
       <c r="X27">
         <v>0</v>
       </c>
       <c r="Y27">
-        <v>2.5507925876311673E-2</v>
+        <v>2.6056217572267518E-2</v>
       </c>
       <c r="Z27">
-        <v>1.5594998883679391E-2</v>
+        <v>1.5930212668909288E-2</v>
       </c>
       <c r="AA27">
-        <v>4.1102924759991062E-2</v>
-      </c>
-      <c r="AB27">
-        <v>62.058663769690391</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
+        <v>4.1986430241176806E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -3025,25 +2943,25 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>3.3210071892951736</v>
+        <v>3.4151043509020167</v>
       </c>
       <c r="D28">
-        <v>0.34223884982401465</v>
+        <v>0.35192063992326478</v>
       </c>
       <c r="E28">
-        <v>3.70770741529453</v>
+        <v>3.8002653377949045</v>
       </c>
       <c r="F28">
-        <v>7.3709534544137183</v>
+        <v>7.567290328620186</v>
       </c>
       <c r="G28">
         <v>482.174854481956</v>
       </c>
       <c r="H28">
-        <v>456.47529535355108</v>
+        <v>439.45940073091145</v>
       </c>
       <c r="I28">
-        <v>1.6147540796714395</v>
+        <v>1.7219543639376524</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -3061,49 +2979,46 @@
         <v>0</v>
       </c>
       <c r="O28">
-        <v>7.3709534544137183</v>
+        <v>7.567290328620186</v>
       </c>
       <c r="P28">
-        <v>1.6147540796714395</v>
+        <v>1.7219543639376524</v>
       </c>
       <c r="Q28">
-        <v>3.6733088737926893</v>
+        <v>3.764892150670744</v>
       </c>
       <c r="R28">
-        <v>3.4398541501840629E-2</v>
+        <v>3.5373187124160488E-2</v>
       </c>
       <c r="S28">
-        <v>1.3860892298166558</v>
+        <v>1.4253625751680226</v>
       </c>
       <c r="T28">
-        <v>0.34223884982401465</v>
+        <v>0.35192063992326478</v>
       </c>
       <c r="U28">
-        <v>1.7727894558160118</v>
+        <v>1.8105235620609101</v>
       </c>
       <c r="V28">
-        <v>3.5011175354566824</v>
+        <v>3.5878067771521978</v>
       </c>
       <c r="W28">
-        <v>0.76698948904671449</v>
+        <v>0.81641370538096047</v>
       </c>
       <c r="X28">
-        <v>0.75547796773416809</v>
+        <v>0.77688362221436147</v>
       </c>
       <c r="Y28">
-        <v>0.34223884982401465</v>
+        <v>0.35192063992326478</v>
       </c>
       <c r="Z28">
-        <v>0.97722221526197073</v>
+        <v>0.96854106916472049</v>
       </c>
       <c r="AA28">
-        <v>2.0749390328201534</v>
-      </c>
-      <c r="AB28">
-        <v>16.49392316644893</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
+        <v>2.0973453313023467</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -3111,28 +3026,28 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>0.95888938365283205</v>
+        <v>0.92406763539018344</v>
       </c>
       <c r="D29">
-        <v>0.36500260254455469</v>
+        <v>0.37657688670606104</v>
       </c>
       <c r="E29">
         <v>3</v>
       </c>
       <c r="F29">
-        <v>4.3238919861973866</v>
+        <v>4.3006445220962446</v>
       </c>
       <c r="G29">
         <v>679.4448328542951</v>
       </c>
       <c r="H29">
-        <v>643.23093141559696</v>
+        <v>619.25340216395841</v>
       </c>
       <c r="I29">
-        <v>0.67221456167873306</v>
+        <v>0.69448863858766041</v>
       </c>
       <c r="J29">
-        <v>3.2202937505765705</v>
+        <v>3.5530816153002847</v>
       </c>
       <c r="K29">
         <v>0.211278465410002</v>
@@ -3141,16 +3056,16 @@
         <v>0.10784373594051003</v>
       </c>
       <c r="M29">
-        <v>3.5394159519270829</v>
+        <v>3.872203816650797</v>
       </c>
       <c r="N29">
-        <v>0.55025586909163049</v>
+        <v>0.62530198511942314</v>
       </c>
       <c r="O29">
-        <v>7.8633079381244695</v>
+        <v>8.1728483387470412</v>
       </c>
       <c r="P29">
-        <v>1.2224704307703635</v>
+        <v>1.3197906237070836</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -3159,37 +3074,34 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <v>0.95888938365283205</v>
+        <v>0.92406763539018344</v>
       </c>
       <c r="T29">
-        <v>0.36500260254455469</v>
+        <v>0.37657688670606104</v>
       </c>
       <c r="U29">
         <v>3</v>
       </c>
       <c r="V29">
-        <v>4.3238919861973866</v>
+        <v>4.3006445220962437</v>
       </c>
       <c r="W29">
-        <v>0.67221456167873306</v>
+        <v>0.6944886385876603</v>
       </c>
       <c r="X29">
-        <v>0.95888938365283205</v>
+        <v>0.92406763539018344</v>
       </c>
       <c r="Y29">
-        <v>0.36500260254455469</v>
+        <v>0.37657688670606104</v>
       </c>
       <c r="Z29">
         <v>3</v>
       </c>
       <c r="AA29">
-        <v>4.3238919861973866</v>
-      </c>
-      <c r="AB29">
-        <v>8.4415291526639962</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
+        <v>4.3006445220962446</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -3200,25 +3112,25 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>1.7186168702073275E-3</v>
+        <v>1.7011483776886622E-3</v>
       </c>
       <c r="E30">
-        <v>7.6656485703606378E-2</v>
+        <v>7.3798984550418723E-2</v>
       </c>
       <c r="F30">
-        <v>7.8375102573813707E-2</v>
+        <v>7.550013292810738E-2</v>
       </c>
       <c r="G30">
         <v>253.663144586019</v>
       </c>
       <c r="H30">
-        <v>240.14308869262425</v>
+        <v>231.19134577653938</v>
       </c>
       <c r="I30">
-        <v>3.2636834564134146E-2</v>
+        <v>3.2656989246077961E-2</v>
       </c>
       <c r="J30">
-        <v>1.1150221664343694</v>
+        <v>1.2302494949415488</v>
       </c>
       <c r="K30">
         <v>8.2016742119404754E-2</v>
@@ -3227,55 +3139,52 @@
         <v>2.1479259808210888E-2</v>
       </c>
       <c r="M30">
-        <v>1.218518168361985</v>
+        <v>1.3337454968691644</v>
       </c>
       <c r="N30">
-        <v>0.50741338216135412</v>
+        <v>0.57690113459450654</v>
       </c>
       <c r="O30">
-        <v>1.2968932709357988</v>
+        <v>1.4092456297972717</v>
       </c>
       <c r="P30">
-        <v>0.54005021672548825</v>
+        <v>0.6095581238405845</v>
       </c>
       <c r="Q30">
-        <v>7.3417521311362227E-2</v>
+        <v>7.0680758076186581E-2</v>
       </c>
       <c r="R30">
-        <v>3.2389643922441508E-3</v>
+        <v>3.1182264742321414E-3</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>1.7186168702073275E-3</v>
+        <v>1.7011483776886622E-3</v>
       </c>
       <c r="U30">
-        <v>7.6656485703606378E-2</v>
+        <v>7.3798984550418723E-2</v>
       </c>
       <c r="V30">
-        <v>7.8375102573813707E-2</v>
+        <v>7.550013292810738E-2</v>
       </c>
       <c r="W30">
-        <v>3.2636834564134146E-2</v>
+        <v>3.2656989246077961E-2</v>
       </c>
       <c r="X30">
         <v>0</v>
       </c>
       <c r="Y30">
-        <v>1.7186168702073275E-3</v>
+        <v>1.7011483776886622E-3</v>
       </c>
       <c r="Z30">
-        <v>7.6656485703606378E-2</v>
+        <v>7.3798984550418723E-2</v>
       </c>
       <c r="AA30">
-        <v>7.8375102573813707E-2</v>
-      </c>
-      <c r="AB30">
-        <v>2.1928097237113446</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
+        <v>7.550013292810738E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -3283,25 +3192,25 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>0.65397999454606959</v>
+        <v>0.64494963968250651</v>
       </c>
       <c r="D31">
-        <v>0.23667518697339771</v>
+        <v>0.22785271600437476</v>
       </c>
       <c r="E31">
-        <v>3.389188677459055E-3</v>
+        <v>3.2628508931826466E-3</v>
       </c>
       <c r="F31">
-        <v>0.8940443701969264</v>
+        <v>0.87606520658006393</v>
       </c>
       <c r="G31">
         <v>1810.9558713809799</v>
       </c>
       <c r="H31">
-        <v>1714.4332778386631</v>
+        <v>1650.5248554329019</v>
       </c>
       <c r="I31">
-        <v>5.2148099418836677E-2</v>
+        <v>5.3077977208061393E-2</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -3319,49 +3228,46 @@
         <v>0</v>
       </c>
       <c r="O31">
-        <v>0.8940443701969264</v>
+        <v>0.87606520658006393</v>
       </c>
       <c r="P31">
-        <v>5.2148099418836677E-2</v>
+        <v>5.3077977208061393E-2</v>
       </c>
       <c r="Q31">
-        <v>3.389188677459055E-3</v>
+        <v>3.2628508931826466E-3</v>
       </c>
       <c r="R31">
         <v>0</v>
       </c>
       <c r="S31">
-        <v>0.65397999454606959</v>
+        <v>0.64494963968250651</v>
       </c>
       <c r="T31">
-        <v>0.23667518697339771</v>
+        <v>0.22785271600437476</v>
       </c>
       <c r="U31">
-        <v>3.389188677459055E-3</v>
+        <v>3.2628508931826466E-3</v>
       </c>
       <c r="V31">
-        <v>0.8940443701969264</v>
+        <v>0.87606520658006393</v>
       </c>
       <c r="W31">
-        <v>5.2148099418836677E-2</v>
+        <v>5.3077977208061393E-2</v>
       </c>
       <c r="X31">
-        <v>0.29347723184701313</v>
+        <v>0.28253736784542471</v>
       </c>
       <c r="Y31">
-        <v>0.25560920193126951</v>
+        <v>0.24608093328472475</v>
       </c>
       <c r="Z31">
-        <v>3.389188677459055E-3</v>
+        <v>3.2628508931826466E-3</v>
       </c>
       <c r="AA31">
-        <v>0.55247562245574167</v>
-      </c>
-      <c r="AB31">
-        <v>46.26615031358169</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
+        <v>0.53188115202333219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -3372,25 +3278,25 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0.12214624658183006</v>
+        <v>0.12191145226109887</v>
       </c>
       <c r="E32">
-        <v>4.1644419199091164E-3</v>
+        <v>4.1210353627415238E-3</v>
       </c>
       <c r="F32">
-        <v>0.12631068850173918</v>
+        <v>0.12603248762384039</v>
       </c>
       <c r="G32">
         <v>284.087563695798</v>
       </c>
       <c r="H32">
-        <v>268.9459090180801</v>
+        <v>258.92049188461357</v>
       </c>
       <c r="I32">
-        <v>4.6965090104139809E-2</v>
+        <v>4.8676134788128725E-2</v>
       </c>
       <c r="J32">
-        <v>1.2770890215131656</v>
+        <v>1.4090644751361063</v>
       </c>
       <c r="K32">
         <v>8.8644732146417216E-2</v>
@@ -3399,55 +3305,52 @@
         <v>1.5553949486203832E-2</v>
       </c>
       <c r="M32">
-        <v>1.3812877031457866</v>
+        <v>1.5132631567687274</v>
       </c>
       <c r="N32">
-        <v>0.51359312665839008</v>
+        <v>0.58445090450511905</v>
       </c>
       <c r="O32">
-        <v>1.5075983916475257</v>
+        <v>1.6392956443925677</v>
       </c>
       <c r="P32">
-        <v>0.56055821676252982</v>
+        <v>0.63312703929324776</v>
       </c>
       <c r="Q32">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="R32">
-        <v>1.1644419199091163E-3</v>
+        <v>1.1210353627415237E-3</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>0.12214624658183006</v>
+        <v>0.12191145226109887</v>
       </c>
       <c r="U32">
-        <v>4.1644419199091164E-3</v>
+        <v>4.1210353627415238E-3</v>
       </c>
       <c r="V32">
-        <v>0.12631068850173918</v>
+        <v>0.12603248762384037</v>
       </c>
       <c r="W32">
-        <v>4.6965090104139809E-2</v>
+        <v>4.8676134788128711E-2</v>
       </c>
       <c r="X32">
         <v>0</v>
       </c>
       <c r="Y32">
-        <v>0.12214624658183006</v>
+        <v>0.12191145226109887</v>
       </c>
       <c r="Z32">
-        <v>4.1644419199091164E-3</v>
+        <v>4.1210353627415238E-3</v>
       </c>
       <c r="AA32">
-        <v>0.12631068850173918</v>
-      </c>
-      <c r="AB32">
-        <v>96.703017005681374</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
+        <v>0.12603248762384039</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -3461,22 +3364,22 @@
         <v>1.1450475999999999E-2</v>
       </c>
       <c r="E33">
-        <v>0.68014646408671775</v>
+        <v>0.66959139124243539</v>
       </c>
       <c r="F33">
-        <v>0.6965969400867178</v>
+        <v>0.68604186724243543</v>
       </c>
       <c r="G33">
         <v>116.5271010977</v>
       </c>
       <c r="H33">
-        <v>110.31629375906465</v>
+        <v>106.20406589290923</v>
       </c>
       <c r="I33">
-        <v>0.63145426332769516</v>
+        <v>0.64596572784153583</v>
       </c>
       <c r="J33">
-        <v>0.7153086720592009</v>
+        <v>0.78922927186482927</v>
       </c>
       <c r="K33">
         <v>3.7723649442471412E-2</v>
@@ -3485,19 +3388,19 @@
         <v>7.1275090100874393E-3</v>
       </c>
       <c r="M33">
-        <v>0.76015983051175973</v>
+        <v>0.8340804303173881</v>
       </c>
       <c r="N33">
-        <v>0.68907303228658157</v>
+        <v>0.78535640166397425</v>
       </c>
       <c r="O33">
-        <v>1.4567567705984774</v>
+        <v>1.5201222975598236</v>
       </c>
       <c r="P33">
-        <v>1.3205272956142766</v>
+        <v>1.4313221295055103</v>
       </c>
       <c r="Q33">
-        <v>0.68014646408671775</v>
+        <v>0.66959139124243539</v>
       </c>
       <c r="R33">
         <v>0</v>
@@ -3509,13 +3412,13 @@
         <v>1.1450475999999999E-2</v>
       </c>
       <c r="U33">
-        <v>0.68014646408671775</v>
+        <v>0.66959139124243539</v>
       </c>
       <c r="V33">
-        <v>0.69659694008671769</v>
+        <v>0.68604186724243532</v>
       </c>
       <c r="W33">
-        <v>0.63145426332769505</v>
+        <v>0.64596572784153572</v>
       </c>
       <c r="X33">
         <v>5.0000000000000001E-3</v>
@@ -3524,16 +3427,13 @@
         <v>1.1043492E-2</v>
       </c>
       <c r="Z33">
-        <v>0.68014646408671775</v>
+        <v>0.66959139124243539</v>
       </c>
       <c r="AA33">
-        <v>0.69618995608671774</v>
-      </c>
-      <c r="AB33">
-        <v>1.5862756857446556</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
+        <v>0.68563488324243538</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -3544,25 +3444,25 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>1.442845517513964E-2</v>
+        <v>1.4404223446955888E-2</v>
       </c>
       <c r="E34">
-        <v>6.5636638314872681E-2</v>
+        <v>6.3189920754648202E-2</v>
       </c>
       <c r="F34">
-        <v>8.0065093490012326E-2</v>
+        <v>7.7594144201604084E-2</v>
       </c>
       <c r="G34">
         <v>61.748586534867201</v>
       </c>
       <c r="H34">
-        <v>58.457433053930892</v>
+        <v>56.278332605602628</v>
       </c>
       <c r="I34">
-        <v>0.13696306749587675</v>
+        <v>0.13787569853105319</v>
       </c>
       <c r="J34">
-        <v>0.2771993252061532</v>
+        <v>0.30584533662101049</v>
       </c>
       <c r="K34">
         <v>1.9455851711810936E-2</v>
@@ -3571,19 +3471,19 @@
         <v>6.6172500414464824E-3</v>
       </c>
       <c r="M34">
-        <v>0.30327242695941059</v>
+        <v>0.33191843837426788</v>
       </c>
       <c r="N34">
-        <v>0.51879189884992305</v>
+        <v>0.58978015695728825</v>
       </c>
       <c r="O34">
-        <v>0.38333752044942293</v>
+        <v>0.40951258257587198</v>
       </c>
       <c r="P34">
-        <v>0.65575496634579966</v>
+        <v>0.72765585548834144</v>
       </c>
       <c r="Q34">
-        <v>6.5636638314872681E-2</v>
+        <v>6.3189920754648202E-2</v>
       </c>
       <c r="R34">
         <v>0</v>
@@ -3592,34 +3492,31 @@
         <v>0</v>
       </c>
       <c r="T34">
-        <v>6.1784551751396383E-3</v>
+        <v>1.4404223446955888E-2</v>
       </c>
       <c r="U34">
-        <v>6.5636638314872681E-2</v>
+        <v>6.3189920754648202E-2</v>
       </c>
       <c r="V34">
-        <v>7.1815093490012319E-2</v>
+        <v>7.7594144201604098E-2</v>
       </c>
       <c r="W34">
-        <v>0.1228502343299236</v>
+        <v>0.13787569853105319</v>
       </c>
       <c r="X34">
         <v>0</v>
       </c>
       <c r="Y34">
-        <v>1.442845517513964E-2</v>
+        <v>1.4404223446955888E-2</v>
       </c>
       <c r="Z34">
-        <v>6.5636638314872681E-2</v>
+        <v>6.3189920754648202E-2</v>
       </c>
       <c r="AA34">
-        <v>8.0065093490012326E-2</v>
-      </c>
-      <c r="AB34">
-        <v>18.020905923178006</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
+        <v>7.7594144201604084E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -3630,25 +3527,25 @@
         <v>0.51970000000000005</v>
       </c>
       <c r="D35">
-        <v>8.4588974168891412E-2</v>
+        <v>8.3591992601531162E-2</v>
       </c>
       <c r="E35">
-        <v>0.33399945890392596</v>
+        <v>0.32948500982466883</v>
       </c>
       <c r="F35">
-        <v>0.9382884330728174</v>
+        <v>0.9327770024262001</v>
       </c>
       <c r="G35">
         <v>1427.38068129455</v>
       </c>
       <c r="H35">
-        <v>1351.3023585104136</v>
+        <v>1300.9302600205524</v>
       </c>
       <c r="I35">
-        <v>6.9435861423872938E-2</v>
+        <v>7.1700769141265414E-2</v>
       </c>
       <c r="J35">
-        <v>9.1431707473005712</v>
+        <v>10.088033702505731</v>
       </c>
       <c r="K35">
         <v>0.47327887607485614</v>
@@ -3657,19 +3554,19 @@
         <v>0.26597291286374797</v>
       </c>
       <c r="M35">
-        <v>9.8824225362391758</v>
+        <v>10.827285491444336</v>
       </c>
       <c r="N35">
-        <v>0.73132578168019369</v>
+        <v>0.83227255327839655</v>
       </c>
       <c r="O35">
-        <v>10.820710969311992</v>
+        <v>11.760062493870535</v>
       </c>
       <c r="P35">
-        <v>0.8007616431040665</v>
+        <v>0.90397332241966188</v>
       </c>
       <c r="Q35">
-        <v>0.33399945890392596</v>
+        <v>0.32948500982466883</v>
       </c>
       <c r="R35">
         <v>0</v>
@@ -3678,34 +3575,31 @@
         <v>0.51970000000000005</v>
       </c>
       <c r="T35">
-        <v>8.4588974168891412E-2</v>
+        <v>8.3591992601531162E-2</v>
       </c>
       <c r="U35">
-        <v>0.33399945890392596</v>
+        <v>0.32948500982466883</v>
       </c>
       <c r="V35">
-        <v>0.93828843307281729</v>
+        <v>0.93277700242619987</v>
       </c>
       <c r="W35">
-        <v>6.9435861423872924E-2</v>
+        <v>7.1700769141265386E-2</v>
       </c>
       <c r="X35">
         <v>0.51970000000000005</v>
       </c>
       <c r="Y35">
-        <v>8.4588974168891412E-2</v>
+        <v>8.3591992601531162E-2</v>
       </c>
       <c r="Z35">
-        <v>0.33399945890392596</v>
+        <v>0.32948500982466883</v>
       </c>
       <c r="AA35">
-        <v>0.9382884330728174</v>
-      </c>
-      <c r="AB35">
-        <v>9.0152421352855736</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
+        <v>0.9327770024262001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -3713,28 +3607,28 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>0.30082744758768731</v>
+        <v>0.30810475186521885</v>
       </c>
       <c r="D36">
-        <v>0.63409790561430612</v>
+        <v>0.63771888021550183</v>
       </c>
       <c r="E36">
-        <v>1.9405694072395081</v>
+        <v>2.0288035252075631</v>
       </c>
       <c r="F36">
-        <v>2.8754947604415015</v>
+        <v>2.9746271572882836</v>
       </c>
       <c r="G36">
         <v>635.66380120176507</v>
       </c>
       <c r="H36">
-        <v>601.78339600659388</v>
+        <v>579.35089427794856</v>
       </c>
       <c r="I36">
-        <v>0.47782886326262053</v>
+        <v>0.51344136803233809</v>
       </c>
       <c r="J36">
-        <v>2.5713652825860134</v>
+        <v>2.8370923336239127</v>
       </c>
       <c r="K36">
         <v>0.20439789332234551</v>
@@ -3743,55 +3637,52 @@
         <v>8.1516313683291611E-2</v>
       </c>
       <c r="M36">
-        <v>2.8572794895916505</v>
+        <v>3.1230065406295497</v>
       </c>
       <c r="N36">
-        <v>0.47480198166855753</v>
+        <v>0.5390526831794723</v>
       </c>
       <c r="O36">
-        <v>5.7327742500331524</v>
+        <v>6.0976336979178338</v>
       </c>
       <c r="P36">
-        <v>0.95263084493117811</v>
+        <v>1.0524940512118104</v>
       </c>
       <c r="Q36">
-        <v>1.7717992307163952</v>
+        <v>1.8482709824187435</v>
       </c>
       <c r="R36">
-        <v>0.16877017652311288</v>
+        <v>0.18053254278881958</v>
       </c>
       <c r="S36">
-        <v>0.30082744758768731</v>
+        <v>0.30810475186521885</v>
       </c>
       <c r="T36">
-        <v>0.32089790561430609</v>
+        <v>0.32451888021550179</v>
       </c>
       <c r="U36">
-        <v>1.9405694072395081</v>
+        <v>2.0288035252075631</v>
       </c>
       <c r="V36">
-        <v>2.5622947604415014</v>
+        <v>2.6614271572882831</v>
       </c>
       <c r="W36">
-        <v>0.42578355890919695</v>
+        <v>0.45938086634098485</v>
       </c>
       <c r="X36">
-        <v>0.33517046565211484</v>
+        <v>0.34393003197412775</v>
       </c>
       <c r="Y36">
-        <v>0.15717740970112523</v>
+        <v>0.16274403851845826</v>
       </c>
       <c r="Z36">
-        <v>1.9448622844975616</v>
+        <v>2.0288035252075631</v>
       </c>
       <c r="AA36">
-        <v>2.4372101598508018</v>
-      </c>
-      <c r="AB36">
-        <v>6.4490708388786278</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
+        <v>2.535477595700149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -3799,25 +3690,25 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>0.10405715760056668</v>
+        <v>0.10123927363093131</v>
       </c>
       <c r="D37">
-        <v>2.2352369991000338</v>
+        <v>2.2776932225079509</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>2.3392941567006007</v>
+        <v>2.3789324961388822</v>
       </c>
       <c r="G37">
         <v>800.64015538726005</v>
       </c>
       <c r="H37">
-        <v>757.96663389875982</v>
+        <v>729.7121357886075</v>
       </c>
       <c r="I37">
-        <v>0.30862759019720332</v>
+        <v>0.3260097207466538</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -3835,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="O37">
-        <v>2.3392941567006007</v>
+        <v>2.3789324961388822</v>
       </c>
       <c r="P37">
-        <v>0.30862759019720332</v>
+        <v>0.3260097207466538</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -3847,37 +3738,34 @@
         <v>0</v>
       </c>
       <c r="S37">
-        <v>0.10405715760056668</v>
+        <v>0.10123927363093131</v>
       </c>
       <c r="T37">
-        <v>0.63263932443783677</v>
+        <v>0.67666856672825237</v>
       </c>
       <c r="U37">
         <v>0</v>
       </c>
       <c r="V37">
-        <v>0.73669648203840343</v>
+        <v>0.7779078403591837</v>
       </c>
       <c r="W37">
-        <v>9.7193787838529389E-2</v>
+        <v>0.10660475579435041</v>
       </c>
       <c r="X37">
-        <v>0.10405715760056668</v>
+        <v>0.10123927363093131</v>
       </c>
       <c r="Y37">
-        <v>0.68553552219629477</v>
+        <v>0.69854923702390836</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>0.78959267979686143</v>
-      </c>
-      <c r="AB37">
-        <v>86.821413082586147</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
+        <v>0.79978851065483969</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -3888,19 +3776,19 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>4.7445630976048472E-3</v>
+        <v>4.5677014218009487E-3</v>
       </c>
       <c r="E38">
-        <v>6.3517939979172586E-2</v>
+        <v>6.1150200510390086E-2</v>
       </c>
       <c r="F38">
-        <v>6.8262503076777434E-2</v>
+        <v>6.5717901932191042E-2</v>
       </c>
       <c r="G38">
         <v>819.03518292958495</v>
       </c>
       <c r="H38">
-        <v>775.38122023060203</v>
+        <v>746.47756373458344</v>
       </c>
       <c r="I38">
         <v>8.8037343819696648E-3</v>
@@ -3921,13 +3809,13 @@
         <v>0</v>
       </c>
       <c r="O38">
-        <v>6.8262503076777434E-2</v>
+        <v>6.5717901932191042E-2</v>
       </c>
       <c r="P38">
         <v>8.8037343819696648E-3</v>
       </c>
       <c r="Q38">
-        <v>6.3517939979172586E-2</v>
+        <v>6.1150200510390086E-2</v>
       </c>
       <c r="R38">
         <v>0</v>
@@ -3936,13 +3824,13 @@
         <v>0</v>
       </c>
       <c r="T38">
-        <v>4.7445630976048472E-3</v>
+        <v>4.5677014218009487E-3</v>
       </c>
       <c r="U38">
-        <v>6.3517939979172586E-2</v>
+        <v>6.1150200510390086E-2</v>
       </c>
       <c r="V38">
-        <v>6.8262503076777434E-2</v>
+        <v>6.5717901932191042E-2</v>
       </c>
       <c r="W38">
         <v>8.8037343819696648E-3</v>
@@ -3951,19 +3839,16 @@
         <v>0</v>
       </c>
       <c r="Y38">
-        <v>4.7445630976048472E-3</v>
+        <v>4.5677014218009487E-3</v>
       </c>
       <c r="Z38">
-        <v>6.3517939979172586E-2</v>
+        <v>6.1150200510390086E-2</v>
       </c>
       <c r="AA38">
-        <v>6.8262503076777434E-2</v>
-      </c>
-      <c r="AB38">
-        <v>6.9504675096201156</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
+        <v>6.5717901932191042E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -3971,25 +3856,25 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>6.095826086297552</v>
+        <v>5.9642939061754481</v>
       </c>
       <c r="D39">
-        <v>0.57644860489599914</v>
+        <v>0.57893550056240628</v>
       </c>
       <c r="E39">
-        <v>9.1045097586527604</v>
+        <v>9.1173387156994838</v>
       </c>
       <c r="F39">
-        <v>15.776784449846311</v>
+        <v>15.660568122437338</v>
       </c>
       <c r="G39">
         <v>3131.3777629259503</v>
       </c>
       <c r="H39">
-        <v>2964.4776700993566</v>
+        <v>2853.9717124735239</v>
       </c>
       <c r="I39">
-        <v>0.53219441013085933</v>
+        <v>0.54872891886039044</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -4007,49 +3892,46 @@
         <v>0</v>
       </c>
       <c r="O39">
-        <v>15.776784449846311</v>
+        <v>15.660568122437338</v>
       </c>
       <c r="P39">
-        <v>0.53219441013085933</v>
+        <v>0.54872891886039044</v>
       </c>
       <c r="Q39">
-        <v>9.0757072516825517</v>
+        <v>9.0883911339804584</v>
       </c>
       <c r="R39">
-        <v>2.8802506970208697E-2</v>
+        <v>2.894758171902545E-2</v>
       </c>
       <c r="S39">
-        <v>4.202424590510371</v>
+        <v>4.1414721781404502</v>
       </c>
       <c r="T39">
-        <v>0.57644860489599914</v>
+        <v>0.57893550056240628</v>
       </c>
       <c r="U39">
-        <v>9.1045097586527604</v>
+        <v>9.1173387156994838</v>
       </c>
       <c r="V39">
-        <v>13.883382954059124</v>
+        <v>13.837746394402341</v>
       </c>
       <c r="W39">
-        <v>0.46832476068520407</v>
+        <v>0.48485926941473539</v>
       </c>
       <c r="X39">
-        <v>3.2557238426167805</v>
+        <v>3.2300613141229508</v>
       </c>
       <c r="Y39">
-        <v>0.54159757146204923</v>
+        <v>0.54390892668238811</v>
       </c>
       <c r="Z39">
-        <v>4.916102817354421</v>
+        <v>4.8131371184938123</v>
       </c>
       <c r="AA39">
-        <v>8.7134242314332511</v>
-      </c>
-      <c r="AB39">
-        <v>6.2156685715847804</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
+        <v>8.5871073592991518</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -4057,25 +3939,25 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>24.964498721953987</v>
+        <v>24.033904484141452</v>
       </c>
       <c r="D40">
-        <v>1.5081122711350943</v>
+        <v>1.4518948158950056</v>
       </c>
       <c r="E40">
-        <v>43.856480166619342</v>
+        <v>42.221655122129057</v>
       </c>
       <c r="F40">
-        <v>70.329091159708426</v>
+        <v>67.707454422165512</v>
       </c>
       <c r="G40">
         <v>23315.080559999999</v>
       </c>
       <c r="H40">
-        <v>22072.404203351318</v>
+        <v>21249.617717827197</v>
       </c>
       <c r="I40">
-        <v>0.31862904698451544</v>
+        <v>0.31862904698451533</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -4093,49 +3975,46 @@
         <v>0</v>
       </c>
       <c r="O40">
-        <v>70.329091159708426</v>
+        <v>67.707454422165512</v>
       </c>
       <c r="P40">
-        <v>0.31862904698451544</v>
+        <v>0.31862904698451533</v>
       </c>
       <c r="Q40">
-        <v>43.856480166619342</v>
+        <v>42.221655122129057</v>
       </c>
       <c r="R40">
         <v>0</v>
       </c>
       <c r="S40">
-        <v>24.964498721953987</v>
+        <v>24.033904484141452</v>
       </c>
       <c r="T40">
-        <v>1.5081122711350943</v>
+        <v>1.4518948158950056</v>
       </c>
       <c r="U40">
-        <v>43.856480166619342</v>
+        <v>42.221655122129057</v>
       </c>
       <c r="V40">
-        <v>70.329091159708398</v>
+        <v>67.707454422165512</v>
       </c>
       <c r="W40">
-        <v>0.31862904698451527</v>
+        <v>0.31862904698451533</v>
       </c>
       <c r="X40">
-        <v>21.774117201552588</v>
+        <v>20.962449872402477</v>
       </c>
       <c r="Y40">
-        <v>2.5620955438795794</v>
+        <v>2.4665890658038641</v>
       </c>
       <c r="Z40">
-        <v>44.851841332954635</v>
+        <v>43.179912504557038</v>
       </c>
       <c r="AA40">
-        <v>69.188054078386799</v>
-      </c>
-      <c r="AB40">
-        <v>3.7030894682727253</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
+        <v>66.608951442763384</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -4146,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>2.1430051813471503E-3</v>
+        <v>2.113631434585699E-3</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>2.1430051813471503E-3</v>
+        <v>2.113631434585699E-3</v>
       </c>
       <c r="G41">
         <v>17734.062645371399</v>
       </c>
       <c r="H41">
-        <v>16788.850369564894</v>
+        <v>16163.017358158404</v>
       </c>
       <c r="I41">
-        <v>1.2764454588457262E-5</v>
+        <v>1.3076960741608236E-5</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -4179,10 +4058,10 @@
         <v>0</v>
       </c>
       <c r="O41">
-        <v>2.1430051813471503E-3</v>
+        <v>2.113631434585699E-3</v>
       </c>
       <c r="P41">
-        <v>1.2764454588457262E-5</v>
+        <v>1.3076960741608236E-5</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -4194,34 +4073,31 @@
         <v>0</v>
       </c>
       <c r="T41">
-        <v>2.1430051813471503E-3</v>
+        <v>2.113631434585699E-3</v>
       </c>
       <c r="U41">
         <v>0</v>
       </c>
       <c r="V41">
-        <v>2.1430051813471503E-3</v>
+        <v>2.113631434585699E-3</v>
       </c>
       <c r="W41">
-        <v>1.2764454588457262E-5</v>
+        <v>1.3076960741608236E-5</v>
       </c>
       <c r="X41">
         <v>0</v>
       </c>
       <c r="Y41">
-        <v>2.1430051813471503E-3</v>
+        <v>2.113631434585699E-3</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>2.1430051813471503E-3</v>
-      </c>
-      <c r="AB41">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
+        <v>2.113631434585699E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -4232,22 +4108,22 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>6.6335321404903905E-2</v>
+        <v>6.3862559241706154E-2</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>6.6335321404903905E-2</v>
+        <v>6.3862559241706154E-2</v>
       </c>
       <c r="G42">
         <v>775</v>
       </c>
       <c r="H42">
-        <v>733.69307961753293</v>
+        <v>706.34341961356188</v>
       </c>
       <c r="I42">
-        <v>9.0412903225806449E-3</v>
+        <v>9.0412903225806432E-3</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -4265,10 +4141,10 @@
         <v>0</v>
       </c>
       <c r="O42">
-        <v>6.6335321404903905E-2</v>
+        <v>6.3862559241706154E-2</v>
       </c>
       <c r="P42">
-        <v>9.0412903225806449E-3</v>
+        <v>9.0412903225806432E-3</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -4280,34 +4156,31 @@
         <v>0</v>
       </c>
       <c r="T42">
-        <v>6.6335321404903905E-2</v>
+        <v>6.3862559241706154E-2</v>
       </c>
       <c r="U42">
         <v>0</v>
       </c>
       <c r="V42">
-        <v>6.6335321404903905E-2</v>
+        <v>6.3862559241706154E-2</v>
       </c>
       <c r="W42">
-        <v>9.0412903225806449E-3</v>
+        <v>9.0412903225806432E-3</v>
       </c>
       <c r="X42">
         <v>0</v>
       </c>
       <c r="Y42">
-        <v>2.7615260816056038E-2</v>
+        <v>2.6585854903390448E-2</v>
       </c>
       <c r="Z42">
         <v>0</v>
       </c>
       <c r="AA42">
-        <v>2.7615260816056038E-2</v>
-      </c>
-      <c r="AB42">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
+        <v>2.6585854903390448E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -4318,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>1.8434630313357947E-3</v>
+        <v>1.7747448049580752E-3</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.8434630313357947E-3</v>
+        <v>1.7747448049580752E-3</v>
       </c>
       <c r="G43">
         <v>3176.2950654972401</v>
       </c>
       <c r="H43">
-        <v>3007.0009140369593</v>
+        <v>2894.9098300193587</v>
       </c>
       <c r="I43">
         <v>6.1305702393715222E-5</v>
@@ -4351,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="O43">
-        <v>1.8434630313357947E-3</v>
+        <v>1.7747448049580752E-3</v>
       </c>
       <c r="P43">
         <v>6.1305702393715222E-5</v>
@@ -4366,13 +4239,13 @@
         <v>0</v>
       </c>
       <c r="T43">
-        <v>1.8434630313357947E-3</v>
+        <v>1.7747448049580752E-3</v>
       </c>
       <c r="U43">
         <v>0</v>
       </c>
       <c r="V43">
-        <v>1.8434630313357947E-3</v>
+        <v>1.7747448049580752E-3</v>
       </c>
       <c r="W43">
         <v>6.1305702393715222E-5</v>
@@ -4381,16 +4254,13 @@
         <v>0</v>
       </c>
       <c r="Y43">
-        <v>1.8434630313357947E-3</v>
+        <v>1.7747448049580752E-3</v>
       </c>
       <c r="Z43">
         <v>0</v>
       </c>
       <c r="AA43">
-        <v>1.8434630313357947E-3</v>
-      </c>
-      <c r="AB43">
-        <v>100</v>
+        <v>1.7747448049580752E-3</v>
       </c>
     </row>
   </sheetData>
@@ -4403,7 +4273,7 @@
   <dimension ref="A1:AA45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4416,79 +4286,79 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
         <v>85</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>86</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>87</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>88</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>89</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>90</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>91</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>92</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>93</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>94</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>95</v>
       </c>
-      <c r="N1" t="s">
-        <v>96</v>
-      </c>
       <c r="O1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" t="s">
         <v>70</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>72</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>73</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>74</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>75</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>76</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>77</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>78</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>79</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>80</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>81</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
@@ -4502,22 +4372,22 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.8401022436807723E-3</v>
+        <v>2.7342325920524974E-3</v>
       </c>
       <c r="E2">
-        <v>6.9724108913866684E-2</v>
+        <v>7.1239943499355154E-2</v>
       </c>
       <c r="F2">
-        <v>6.1429344232734273E-2</v>
+        <v>6.276484677270773E-2</v>
       </c>
       <c r="G2">
-        <v>3.660515717978001E-2</v>
+        <v>3.740097033716145E-2</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>6.5035763659313572E-2</v>
+        <v>6.6449671436467475E-2</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -4526,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>4.6861687020732748E-2</v>
+        <v>4.5114837768866205E-2</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -4538,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>1.9835306846186212E-2</v>
+        <v>2.0266535650678621E-2</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -4550,10 +4420,10 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.12021398088597704</v>
+        <v>0.12282748879199164</v>
       </c>
       <c r="U2">
-        <v>4.6861687020732748E-2</v>
+        <v>4.5114837768866205E-2</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -4562,7 +4432,7 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>1.2021398088597703E-2</v>
+        <v>1.2282748879199164E-2</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -4588,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>3.3961696961090598E-3</v>
+        <v>3.2695716824644549E-3</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4757,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3.5974628419956451E-3</v>
+        <v>3.4633612832664969E-3</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -4781,7 +4651,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.8934014957871816E-2</v>
+        <v>1.8228217280349981E-2</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -4802,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1.5971795891318752E-2</v>
+        <v>1.537641997812614E-2</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -4831,22 +4701,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.22730413154622084</v>
+        <v>0.22481891485581523</v>
       </c>
       <c r="D6">
-        <v>2.5563078623739119E-2</v>
+        <v>2.5283586169195023E-2</v>
       </c>
       <c r="E6">
-        <v>1.2436092303440652E-2</v>
+        <v>1.2300123001230012E-2</v>
       </c>
       <c r="F6">
-        <v>3.2279339834011801E-2</v>
+        <v>3.1076072426783331E-2</v>
       </c>
       <c r="G6">
-        <v>0.10225231449495646</v>
+        <v>0.10113434467678011</v>
       </c>
       <c r="H6">
-        <v>0.18094150673076223</v>
+        <v>0.17896319314070333</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -4858,46 +4728,46 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>3.2472018792317259E-2</v>
+        <v>3.2116987836545034E-2</v>
       </c>
       <c r="M6">
-        <v>0.36893740500207262</v>
+        <v>0.36490364903649031</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>7.1658712417715292E-2</v>
+        <v>7.0661948753944756E-2</v>
       </c>
       <c r="P6">
-        <v>5.325721490767895E-2</v>
+        <v>5.1854374313609876E-2</v>
       </c>
       <c r="Q6">
-        <v>4.4597812285400183E-2</v>
+        <v>4.2935352822701618E-2</v>
       </c>
       <c r="R6">
-        <v>6.7776703053751539E-2</v>
+        <v>6.7035670356703561E-2</v>
       </c>
       <c r="S6">
-        <v>1.8509566770803745E-2</v>
+        <v>1.7819591122858185E-2</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>3.3715628022661322E-2</v>
+        <v>3.3347000136668033E-2</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0.44908111095757913</v>
+        <v>0.44417110837775048</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>4.1453641011468839E-2</v>
+        <v>4.1000410004100041E-2</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -4944,7 +4814,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>6.0197971813904926E-2</v>
+        <v>5.7953989816831732E-2</v>
       </c>
       <c r="N7">
         <v>3.0000000000000001E-3</v>
@@ -4965,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>5.5226798439199929E-3</v>
+        <v>7.7666618409931954E-3</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -5083,16 +4953,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.5411102749755943E-2</v>
+        <v>2.5383224980699687E-2</v>
       </c>
       <c r="E9">
-        <v>8.5285738937133249E-3</v>
+        <v>8.5188406834552713E-3</v>
       </c>
       <c r="F9">
-        <v>0.29970347244061624</v>
+        <v>0.28872724735293986</v>
       </c>
       <c r="G9">
-        <v>7.3842658335700084E-2</v>
+        <v>7.1090047393364941E-2</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -5107,10 +4977,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.7165636186137326E-2</v>
+        <v>1.7146804274511398E-2</v>
       </c>
       <c r="M9">
-        <v>3.9659941425317279E-2</v>
+        <v>3.9616431676892445E-2</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -5119,22 +4989,22 @@
         <v>9.6249999999999999E-3</v>
       </c>
       <c r="P9">
-        <v>5.3175723747419787E-2</v>
+        <v>5.1193508015311272E-2</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>2.8473804100227793E-2</v>
+        <v>2.8442566332127911E-2</v>
       </c>
       <c r="S9">
-        <v>4.7335037394679536E-2</v>
+        <v>4.5570543200874954E-2</v>
       </c>
       <c r="T9">
-        <v>0.50529779982607048</v>
+        <v>0.48646196313915269</v>
       </c>
       <c r="U9">
-        <v>0.18934014957871814</v>
+        <v>0.18228217280349981</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -5199,7 +5069,7 @@
         <v>5.9595195968044606E-2</v>
       </c>
       <c r="O10">
-        <v>0.24414153359413351</v>
+        <v>0.23988671339362308</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -5208,7 +5078,7 @@
         <v>0.12063696316551392</v>
       </c>
       <c r="R10">
-        <v>1.4168810016893726E-2</v>
+        <v>1.3640643475068213E-2</v>
       </c>
       <c r="S10">
         <v>0.22786981931263739</v>
@@ -5220,19 +5090,19 @@
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0.73981740244248784</v>
+        <v>0.71223944786729865</v>
       </c>
       <c r="W10">
         <v>0.77743820706664524</v>
       </c>
       <c r="X10">
-        <v>0.73722588601147387</v>
+        <v>0.49595195968044609</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0.93828749128733036</v>
+        <v>1.1795614176183584</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -5291,7 +5161,7 @@
         <v>4.9430000000000003E-4</v>
       </c>
       <c r="R11">
-        <v>8.7749692322256941E-3</v>
+        <v>8.4478672985781982E-3</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -5406,7 +5276,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -5489,7 +5359,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -5581,7 +5451,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.8599999999999999E-2</v>
+        <v>2.93E-2</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -5644,10 +5514,10 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="Y15">
-        <v>0.20599999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="AA15">
         <v>0</v>
@@ -5676,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.10459534009042984</v>
+        <v>0.10069637052271331</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -5691,19 +5561,19 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.5349430462711893E-2</v>
+        <v>4.365895315144238E-2</v>
       </c>
       <c r="N16">
-        <v>0.14550603263754808</v>
+        <v>0.1400820472794769</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>2.1633017580232883E-2</v>
+        <v>2.0826609979948962E-2</v>
       </c>
       <c r="Q16">
-        <v>6.4754331155921621E-2</v>
+        <v>6.2340503098796941E-2</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -5721,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="W16">
-        <v>3.9572091261952096E-2</v>
+        <v>3.8096974115931465E-2</v>
       </c>
       <c r="X16">
         <v>0</v>
@@ -5753,16 +5623,16 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.3815732178358419E-2</v>
+        <v>3.2555193127962088E-2</v>
       </c>
       <c r="G17">
-        <v>9.1311512183572835E-2</v>
+        <v>8.7907719941221277E-2</v>
       </c>
       <c r="H17">
-        <v>5.9026878585629078E-2</v>
+        <v>5.6826551084578923E-2</v>
       </c>
       <c r="I17">
-        <v>0.1066804930564266</v>
+        <v>0.10270379585809646</v>
       </c>
       <c r="J17">
         <v>6.4305694999999996E-2</v>
@@ -5774,10 +5644,10 @@
         <v>0.75768211399999996</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.43211543800000002</v>
       </c>
       <c r="N17">
-        <v>0.74396267599999999</v>
+        <v>0.31184723800000003</v>
       </c>
       <c r="O17">
         <v>9.3552584999999994E-2</v>
@@ -5810,13 +5680,13 @@
         <v>1</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Z17">
-        <v>0.31468491561992651</v>
+        <v>0.30295449906063471</v>
       </c>
       <c r="AA17">
-        <v>1.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.35">
@@ -5833,13 +5703,13 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1.6369648016661933E-2</v>
+        <v>1.5759441487422528E-2</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.14397846066458392</v>
+        <v>0.13861141815530442</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -5851,7 +5721,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.126450932500237E-2</v>
+        <v>2.0471838497994901E-2</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -5866,7 +5736,7 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>1.0632254662501185E-2</v>
+        <v>1.0235919248997451E-2</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -6026,7 +5896,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>6.7293382561772221E-4</v>
+        <v>6.4784907036091873E-4</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -6035,13 +5905,13 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7.1658703071672356E-3</v>
+        <v>6.9781972879553308E-3</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>8.6006825938566549E-3</v>
+        <v>8.3754320659399101E-3</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -6171,7 +6041,7 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>8.473353592729339E-3</v>
+        <v>8.1574948960991631E-3</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -6186,7 +6056,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.15460748134588054</v>
+        <v>0.14884422397525851</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -6195,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.32355391460759253</v>
+        <v>0.31149289099526067</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -6204,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="R22">
-        <v>4.9269733254647535E-2</v>
+        <v>4.7433119975286361E-2</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -6248,10 +6118,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.0827416453659E-3</v>
+        <v>2.0051039008384978E-3</v>
       </c>
       <c r="F23">
-        <v>1.7040613462084633E-4</v>
+        <v>1.6405395552314983E-4</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -6263,7 +6133,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.8162453848338538E-5</v>
+        <v>6.5621582209259943E-5</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -6284,7 +6154,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>2.8401022436807727E-2</v>
+        <v>2.7342325920524973E-2</v>
       </c>
       <c r="R23">
         <v>0</v>
@@ -6314,7 +6184,7 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>3.5027927672062857E-2</v>
+        <v>3.3722201968647468E-2</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.35">
@@ -6346,7 +6216,7 @@
         <v>0.03</v>
       </c>
       <c r="J24">
-        <v>4.592324514567532E-2</v>
+        <v>4.4211377914123995E-2</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -6426,19 +6296,19 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.6135353592729336E-3</v>
+        <v>3.5533880787458989E-3</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>4.9719624491669128E-3</v>
+        <v>4.7866240749681096E-3</v>
       </c>
       <c r="L25">
-        <v>8.4187739846634472E-3</v>
+        <v>8.1049498359460435E-3</v>
       </c>
       <c r="M25">
-        <v>3.3201018189325783E-2</v>
+        <v>3.593328459593418E-2</v>
       </c>
       <c r="N25">
         <v>0.05</v>
@@ -6450,7 +6320,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.3672559415211201E-4</v>
+        <v>1.4201961744172802E-4</v>
       </c>
       <c r="R25">
         <v>4.1000000000000002E-2</v>
@@ -6459,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="T25">
-        <v>2.8171604468427532E-2</v>
+        <v>2.7710431826467371E-2</v>
       </c>
       <c r="U25">
         <v>2.7E-2</v>
@@ -6497,7 +6367,7 @@
         <v>0.05</v>
       </c>
       <c r="E26">
-        <v>5.0568020448736151E-2</v>
+        <v>5.0546846518410495E-2</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -6660,19 +6530,19 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>6.1929963078670831E-2</v>
+        <v>5.9897265767407948E-2</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0.12720270750970908</v>
+        <v>0.12246100979083642</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>3.9133505221531223E-2</v>
+        <v>3.7674737117666265E-2</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -6690,43 +6560,43 @@
         <v>0.245</v>
       </c>
       <c r="N28">
-        <v>0.10066602188866794</v>
+        <v>0.10415357995260668</v>
       </c>
       <c r="O28">
-        <v>0.25425685884691851</v>
+        <v>0.25336755377324099</v>
       </c>
       <c r="P28">
-        <v>2.0213170122124396E-2</v>
+        <v>1.9459689755741891E-2</v>
       </c>
       <c r="Q28">
-        <v>4.3772531753203718E-2</v>
+        <v>4.2140836028900015E-2</v>
       </c>
       <c r="R28">
-        <v>0.1575</v>
+        <v>0.41749999999999998</v>
       </c>
       <c r="S28">
-        <v>0.30607831086401044</v>
+        <v>4.4528489726261611E-2</v>
       </c>
       <c r="T28">
-        <v>0.15488383981823345</v>
+        <v>0.1491102807145461</v>
       </c>
       <c r="U28">
-        <v>7.1712682634352627E-4</v>
+        <v>6.9039470166484395E-4</v>
       </c>
       <c r="V28">
-        <v>0.75665264670634735</v>
+        <v>0.75604453399879201</v>
       </c>
       <c r="W28">
-        <v>8.6522361168393069E-2</v>
+        <v>8.3452635705590236E-2</v>
       </c>
       <c r="X28">
-        <v>3.0176796364669131E-3</v>
+        <v>2.9051904848705801E-3</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>5.3703787455404585E-2</v>
+        <v>5.1779658755143884E-2</v>
       </c>
       <c r="AA28">
         <v>0</v>
@@ -6746,16 +6616,16 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>5.1574012056262554E-3</v>
+        <v>5.268259307828268E-3</v>
       </c>
       <c r="F29">
-        <v>6.4746595222147799E-3</v>
+        <v>6.6138320314727186E-3</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>2.5117213663764233E-3</v>
+        <v>2.5657107018644161E-3</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -6770,7 +6640,7 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>1.0325965617325296E-3</v>
+        <v>1.054792177433149E-3</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -6794,7 +6664,7 @@
         <v>0</v>
       </c>
       <c r="U29">
-        <v>4.1862022772940388E-4</v>
+        <v>4.2761845031073607E-4</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -6826,55 +6696,55 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>1.1105178453090976E-2</v>
+        <v>1.0691213999270871E-2</v>
       </c>
       <c r="E30">
-        <v>2.7927672062860926E-3</v>
+        <v>2.6886620488516225E-3</v>
       </c>
       <c r="F30">
-        <v>9.9943883903257508E-2</v>
+        <v>9.8475215176125785E-2</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>8.1175643106802114E-2</v>
+        <v>7.8149682659237218E-2</v>
       </c>
       <c r="I30">
-        <v>1.5737075944333996E-2</v>
+        <v>1.5150449617207436E-2</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>1.4100539619426299E-2</v>
+        <v>1.357491797302224E-2</v>
       </c>
       <c r="L30">
         <v>3.0666665999999999E-2</v>
       </c>
       <c r="M30">
-        <v>0.1676928898214716</v>
+        <v>0.17244428723027944</v>
       </c>
       <c r="N30">
-        <v>2.4078979051288227E-2</v>
+        <v>2.4761230986911922E-2</v>
       </c>
       <c r="O30">
         <v>0</v>
       </c>
       <c r="P30">
-        <v>5.4547401204576448E-2</v>
+        <v>5.251405385744997E-2</v>
       </c>
       <c r="Q30">
-        <v>9.4670074789359071E-2</v>
+        <v>9.1141086401749907E-2</v>
       </c>
       <c r="R30">
-        <v>2.8779702735965161E-2</v>
+        <v>2.7706890266131975E-2</v>
       </c>
       <c r="S30">
-        <v>0.11506961037584018</v>
+        <v>0.11078019453153481</v>
       </c>
       <c r="T30">
-        <v>5.7559405471930322E-2</v>
+        <v>5.5413780532263951E-2</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -6883,16 +6753,16 @@
         <v>0</v>
       </c>
       <c r="W30">
-        <v>4.2998176877300405E-2</v>
+        <v>4.421648390519986E-2</v>
       </c>
       <c r="X30">
-        <v>1.7199270750920162E-2</v>
+        <v>1.7686593562079942E-2</v>
       </c>
       <c r="Y30">
-        <v>4.2998176877300405E-3</v>
+        <v>4.4216483905199855E-3</v>
       </c>
       <c r="Z30">
-        <v>0.11480513226239207</v>
+        <v>0.11805801202688361</v>
       </c>
       <c r="AA30">
         <v>0</v>
@@ -6924,7 +6794,7 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>3.1414660702451955E-2</v>
+        <v>3.0243625683558147E-2</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -6942,13 +6812,13 @@
         <v>0</v>
       </c>
       <c r="O31">
-        <v>0.1684795276247627</v>
+        <v>0.16219916608643534</v>
       </c>
       <c r="P31">
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>0.15904572564612326</v>
+        <v>0.15311702515493986</v>
       </c>
       <c r="R31">
         <v>0</v>
@@ -6992,16 +6862,16 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>2.8878443623970465E-3</v>
+        <v>2.7801950419248998E-3</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>2.2936665719965918E-3</v>
+        <v>2.208166241341597E-3</v>
       </c>
       <c r="G32">
-        <v>4.851462559113803E-3</v>
+        <v>4.6706160236893099E-3</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -7010,13 +6880,13 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>3.4081226924169269E-5</v>
+        <v>3.2810791104629972E-5</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>3.3229196251065039E-2</v>
+        <v>3.1990521327014222E-2</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -7025,22 +6895,22 @@
         <v>0</v>
       </c>
       <c r="O32">
-        <v>9.4017241314020637E-4</v>
+        <v>9.0512588406853811E-4</v>
       </c>
       <c r="P32">
-        <v>2.8401022436807727E-2</v>
+        <v>2.7342325920524973E-2</v>
       </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32">
-        <v>7.8007548991763692E-4</v>
+        <v>7.5099684651841047E-4</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>3.2389643922441586E-3</v>
+        <v>3.118226474232141E-3</v>
       </c>
       <c r="U32">
         <v>0</v>
@@ -7078,13 +6948,13 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>7.5736059831487269E-4</v>
+        <v>7.2912869121399934E-4</v>
       </c>
       <c r="F33">
-        <v>1.5147211966297454E-3</v>
+        <v>1.4582573824279987E-3</v>
       </c>
       <c r="G33">
-        <v>1.1171068825144373E-3</v>
+        <v>1.075464819540649E-3</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -7182,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>3.7868029915743634E-4</v>
+        <v>3.6456434560699967E-4</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -7200,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="R34">
-        <v>7.8576162075168036E-4</v>
+        <v>7.5647101713452426E-4</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -7253,13 +7123,13 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>7.2185932026886293E-2</v>
+        <v>6.9495078381334299E-2</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1.5948381993751776E-2</v>
+        <v>1.5353878873496174E-2</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -7280,7 +7150,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="Q35">
-        <v>0.1950203540660797</v>
+        <v>0.18775063798760483</v>
       </c>
       <c r="R35">
         <v>0.26189179600000001</v>
@@ -7336,7 +7206,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>2.3493535029821076E-2</v>
+        <v>2.2617773470652573E-2</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -7345,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>2.5670510271703112E-2</v>
+        <v>2.4713598250091142E-2</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -7410,10 +7280,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>2.7112562718924548E-2</v>
+        <v>2.6101895734597157E-2</v>
       </c>
       <c r="F37">
-        <v>2.9096468806210359E-2</v>
+        <v>2.8011848341232229E-2</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -7422,28 +7292,28 @@
         <v>0.11836000000000001</v>
       </c>
       <c r="I37">
-        <v>1.0756902395152891E-3</v>
+        <v>1.0355920524972658E-3</v>
       </c>
       <c r="J37">
-        <v>1.4242778443372127E-2</v>
+        <v>1.3631445643495943E-2</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>7.1901061158510651E-2</v>
+        <v>6.9220826560093707E-2</v>
       </c>
       <c r="M37">
-        <v>8.4559147230458039E-3</v>
+        <v>8.1407060900048154E-3</v>
       </c>
       <c r="N37">
         <v>0</v>
       </c>
       <c r="O37">
-        <v>2.0241157166991031E-2</v>
+        <v>1.9486633535811728E-2</v>
       </c>
       <c r="P37">
-        <v>1.0756902395152891E-3</v>
+        <v>1.0355920524972658E-3</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -7458,16 +7328,16 @@
         <v>0</v>
       </c>
       <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
         <v>5.3E-3</v>
       </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
       <c r="X37">
-        <v>1.9570679329756844E-3</v>
+        <v>1.8841148902681512E-3</v>
       </c>
       <c r="Y37">
         <v>0</v>
@@ -7490,7 +7360,7 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>7.7271790644961882E-2</v>
+        <v>8.0606880245044921E-2</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -7502,13 +7372,13 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>7.7271790644961882E-2</v>
+        <v>8.0606880245044907E-2</v>
       </c>
       <c r="I38">
-        <v>4.9599903839549424E-2</v>
+        <v>5.1740660797291609E-2</v>
       </c>
       <c r="J38">
-        <v>4.2928772580534375E-2</v>
+        <v>4.4781600136136065E-2</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -7517,16 +7387,16 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>0.25757263548320625</v>
+        <v>0.26868960081681637</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38">
-        <v>0.36918744419259564</v>
+        <v>0.38512176117077018</v>
       </c>
       <c r="P38">
-        <v>6.3660891792104515</v>
+        <v>0.60226774023089402</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -7538,19 +7408,19 @@
         <v>0</v>
       </c>
       <c r="T38">
-        <v>2.1464386290267191E-2</v>
+        <v>2.2390800068068033E-2</v>
       </c>
       <c r="U38">
         <v>0</v>
       </c>
       <c r="V38">
-        <v>0.27903702177347345</v>
+        <v>0.2910804008848844</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>0.18888659935435126</v>
+        <v>0.19703904059899865</v>
       </c>
       <c r="Y38">
         <v>0</v>
@@ -7559,7 +7429,7 @@
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>4.2928772580534376E-3</v>
+        <v>4.4781600136136069E-3</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.35">
@@ -7674,7 +7544,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>6.3517939979172586E-2</v>
+        <v>6.1150200510390086E-2</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -7739,58 +7609,58 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>8.0818839344883084E-2</v>
+        <v>7.7806179365658049E-2</v>
       </c>
       <c r="E41">
-        <v>0.64750497695979314</v>
+        <v>0.62458686266142216</v>
       </c>
       <c r="F41">
-        <v>0.19618307953758504</v>
+        <v>0.19374497002687091</v>
       </c>
       <c r="G41">
-        <v>0.41767022375419094</v>
+        <v>0.41672570173655393</v>
       </c>
       <c r="H41">
-        <v>0.3027347516544745</v>
+        <v>8.1499290929398269E-2</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>0.20995050689471897</v>
       </c>
       <c r="J41">
-        <v>0.434349984697734</v>
+        <v>0.43297869412862627</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41">
-        <v>0.28769524489363213</v>
+        <v>0.27745840922433174</v>
       </c>
       <c r="M41">
-        <v>0.271781457801059</v>
+        <v>0.26408781532466691</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41">
-        <v>0.92761233705132262</v>
+        <v>0.89537398181035299</v>
       </c>
       <c r="P41">
-        <v>0.28802506970206687</v>
+        <v>0.28947581719023191</v>
       </c>
       <c r="Q41">
         <v>0</v>
       </c>
       <c r="R41">
-        <v>0.37868029915743628</v>
+        <v>0.36456434560699963</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>0.35715108643056298</v>
+        <v>0.35895001331588755</v>
       </c>
       <c r="U41">
-        <v>9.5475410608026737E-2</v>
+        <v>9.4353876525906405E-2</v>
       </c>
       <c r="V41">
         <v>0</v>
@@ -7808,7 +7678,7 @@
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>0.2304200557616535</v>
+        <v>0.23158065375218556</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.35">
@@ -7822,73 +7692,73 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>0.33134526176275675</v>
+        <v>0.31899380240612474</v>
       </c>
       <c r="E42">
-        <v>0.94670074789359082</v>
+        <v>0.91141086401749904</v>
       </c>
       <c r="F42">
-        <v>2.1982391366089176</v>
+        <v>2.1162960262486328</v>
       </c>
       <c r="G42">
-        <v>2.0117390892738807</v>
+        <v>1.3443310244258113</v>
       </c>
       <c r="H42">
-        <v>1.4200511218403862</v>
+        <v>3.0760116660590597</v>
       </c>
       <c r="I42">
-        <v>1.4105841143614504</v>
+        <v>1.3580021873860739</v>
       </c>
       <c r="J42">
-        <v>5.0222474675754993</v>
+        <v>4.8350346336128327</v>
       </c>
       <c r="K42">
-        <v>2.2484142762472783</v>
+        <v>2.1646008020415604</v>
       </c>
       <c r="L42">
-        <v>1.538388715327085</v>
+        <v>1.4810426540284363</v>
       </c>
       <c r="M42">
-        <v>1.1360408974723089</v>
+        <v>1.0936930368209989</v>
       </c>
       <c r="N42">
-        <v>2.0117390892738807</v>
+        <v>1.9367480860371857</v>
       </c>
       <c r="O42">
-        <v>5.4435293003881471</v>
+        <v>5.2406124681006192</v>
       </c>
       <c r="P42">
-        <v>4.3879579664867938</v>
+        <v>4.2243893547211089</v>
       </c>
       <c r="Q42">
-        <v>0.71002556092019309</v>
+        <v>0.68355814801312431</v>
       </c>
       <c r="R42">
-        <v>2.7690996875887532</v>
+        <v>2.6658767772511851</v>
       </c>
       <c r="S42">
-        <v>2.0590741266685599</v>
+        <v>1.9823186292380606</v>
       </c>
       <c r="T42">
-        <v>2.7690996875887532</v>
+        <v>2.6658767772511851</v>
       </c>
       <c r="U42">
-        <v>2.3667518697339767</v>
+        <v>2.278527160043748</v>
       </c>
       <c r="V42">
-        <v>0.42601533655211588</v>
+        <v>0.41013488880787458</v>
       </c>
       <c r="W42">
-        <v>1.0413708226829497</v>
+        <v>1.002551950419249</v>
       </c>
       <c r="X42">
-        <v>0.33134526176275675</v>
+        <v>0.31899380240612474</v>
       </c>
       <c r="Y42">
-        <v>0.52068541134147484</v>
+        <v>0.50127597520962452</v>
       </c>
       <c r="Z42">
-        <v>0.59168796743349417</v>
+        <v>0.569631790010937</v>
       </c>
       <c r="AA42">
         <v>0</v>
@@ -8150,10 +8020,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428FBD9C-05FA-4266-A6BB-44783D8BF374}">
-  <dimension ref="A1:AA43"/>
+  <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8166,79 +8036,79 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
         <v>85</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>86</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>87</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>88</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>89</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>90</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>91</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>92</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>93</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>94</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>95</v>
       </c>
-      <c r="N1" t="s">
-        <v>96</v>
-      </c>
       <c r="O1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" t="s">
         <v>70</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>72</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>73</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>74</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>75</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>76</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>77</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>78</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>79</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>80</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>81</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
@@ -8252,22 +8122,22 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.8401022436807723E-3</v>
+        <v>2.7342325920524974E-3</v>
       </c>
       <c r="E2">
-        <v>6.9724108913866684E-2</v>
+        <v>7.1239943499355154E-2</v>
       </c>
       <c r="F2">
-        <v>6.1429344232734273E-2</v>
+        <v>6.276484677270773E-2</v>
       </c>
       <c r="G2">
-        <v>3.660515717978001E-2</v>
+        <v>3.740097033716145E-2</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>6.5035763659313572E-2</v>
+        <v>6.6449671436467475E-2</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -8276,7 +8146,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>4.6861687020732748E-2</v>
+        <v>4.5114837768866205E-2</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -8288,7 +8158,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>1.9835306846186212E-2</v>
+        <v>2.0266535650678621E-2</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -8300,10 +8170,10 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.12021398088597704</v>
+        <v>0.12282748879199164</v>
       </c>
       <c r="U2">
-        <v>4.6861687020732748E-2</v>
+        <v>4.5114837768866205E-2</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -8312,7 +8182,7 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>1.2021398088597703E-2</v>
+        <v>1.2282748879199164E-2</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -8338,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>3.3961696961090598E-3</v>
+        <v>3.2695716824644549E-3</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -8507,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3.5974628419956451E-3</v>
+        <v>3.4633612832664969E-3</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -8531,7 +8401,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.8934014957871816E-2</v>
+        <v>1.8228217280349981E-2</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -8552,7 +8422,7 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1.5971795891318752E-2</v>
+        <v>1.537641997812614E-2</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -8581,16 +8451,16 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.22730413154622084</v>
+        <v>0.22481891485581523</v>
       </c>
       <c r="D6">
-        <v>2.5563078623739119E-2</v>
+        <v>2.5283586169195023E-2</v>
       </c>
       <c r="E6">
-        <v>4.6980793146331357E-2</v>
+        <v>4.6467131337980049E-2</v>
       </c>
       <c r="F6">
-        <v>0.34544700842890697</v>
+        <v>0.34167008336750032</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -8611,28 +8481,28 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.36893740500207262</v>
+        <v>0.36490364903649031</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>7.1658712417715292E-2</v>
+        <v>7.0661948753944756E-2</v>
       </c>
       <c r="P6">
-        <v>5.325721490767895E-2</v>
+        <v>5.1854374313609876E-2</v>
       </c>
       <c r="Q6">
-        <v>4.4597812285400183E-2</v>
+        <v>4.2935352822701618E-2</v>
       </c>
       <c r="R6">
-        <v>6.7776703053751539E-2</v>
+        <v>6.7035670356703561E-2</v>
       </c>
       <c r="S6">
-        <v>1.8509566770803745E-2</v>
+        <v>1.7819591122858185E-2</v>
       </c>
       <c r="T6">
-        <v>0.32472018792317259</v>
+        <v>0.3211698783654503</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -8641,13 +8511,13 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0.44908111095757913</v>
+        <v>0.14805703612591681</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.35581041868177427</v>
+        <v>0.35192018586852536</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -8694,7 +8564,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>6.0197971813904926E-2</v>
+        <v>5.7953989816831732E-2</v>
       </c>
       <c r="N7">
         <v>3.0000000000000001E-3</v>
@@ -8715,7 +8585,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>5.5226798439199929E-3</v>
+        <v>7.7666618409931954E-3</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -8833,16 +8703,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.5411102749755943E-2</v>
+        <v>2.5383224980699687E-2</v>
       </c>
       <c r="E9">
-        <v>8.5285738937133249E-3</v>
+        <v>8.5188406834552713E-3</v>
       </c>
       <c r="F9">
-        <v>0.29970347244061624</v>
+        <v>0.28872724735293986</v>
       </c>
       <c r="G9">
-        <v>7.3842658335700084E-2</v>
+        <v>7.1090047393364941E-2</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -8857,10 +8727,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.7165636186137326E-2</v>
+        <v>1.7146804274511398E-2</v>
       </c>
       <c r="M9">
-        <v>3.9659941425317279E-2</v>
+        <v>3.9616431676892445E-2</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -8869,22 +8739,22 @@
         <v>9.6249999999999999E-3</v>
       </c>
       <c r="P9">
-        <v>5.3175723747419787E-2</v>
+        <v>5.1193508015311272E-2</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>2.8473804100227793E-2</v>
+        <v>2.8442566332127911E-2</v>
       </c>
       <c r="S9">
-        <v>4.7335037394679536E-2</v>
+        <v>4.5570543200874954E-2</v>
       </c>
       <c r="T9">
-        <v>0.50529779982607048</v>
+        <v>0.48646196313915269</v>
       </c>
       <c r="U9">
-        <v>0.18934014957871814</v>
+        <v>0.18228217280349981</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -9041,7 +8911,7 @@
         <v>4.9430000000000003E-4</v>
       </c>
       <c r="R11">
-        <v>8.7749692322256941E-3</v>
+        <v>8.4478672985781982E-3</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -9156,16 +9026,16 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.8599999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -9177,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.475E-2</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -9186,49 +9056,49 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>8.2500000000000004E-3</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>5.5599999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>2.8799999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.161</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>7.8E-2</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>0.109</v>
+        <v>0</v>
       </c>
       <c r="T13">
         <v>0</v>
       </c>
       <c r="U13">
-        <v>0.105</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>9.4E-2</v>
+        <v>0</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>9.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="Y13">
-        <v>0.20599999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -9239,61 +9109,61 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0.5</v>
+      </c>
+      <c r="E14">
+        <v>0.5</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.5</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0.5</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0.6</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0.5</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>1</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0.1</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0.10459534009042984</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0.2</v>
-      </c>
-      <c r="M14">
-        <v>4.5349430462711893E-2</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>6.4754331155921621E-2</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
       <c r="S14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -9322,7 +9192,7 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -9331,73 +9201,73 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>5.8599999999999999E-2</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>5.475E-2</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>2.63E-2</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>8.2500000000000004E-3</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>5.5599999999999997E-2</v>
       </c>
       <c r="N15">
-        <v>0.69</v>
+        <v>2.8799999999999999E-2</v>
       </c>
       <c r="O15">
-        <v>1.88</v>
+        <v>0.4</v>
       </c>
       <c r="P15">
-        <v>0.36</v>
+        <v>0.16</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>0.161</v>
       </c>
       <c r="R15">
-        <v>2.3650000000000002</v>
+        <v>7.8E-2</v>
       </c>
       <c r="S15">
-        <v>10.5</v>
+        <v>0.109</v>
       </c>
       <c r="T15">
         <v>0</v>
       </c>
       <c r="U15">
-        <v>4.3700000000000003E-2</v>
+        <v>0.105</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>9.4E-2</v>
       </c>
       <c r="W15">
-        <v>1.1000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Z15">
-        <v>0.55000000000000004</v>
+        <v>0.106</v>
       </c>
       <c r="AA15">
         <v>0</v>
@@ -9405,7 +9275,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -9417,16 +9287,16 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.6369648016661933E-2</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G16">
-        <v>0.14397846066458392</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.10069637052271331</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -9435,13 +9305,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.126450932500237E-2</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>4.365895315144238E-2</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -9450,10 +9320,10 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>1.0632254662501185E-2</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>6.2340503098796941E-2</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -9488,7 +9358,7 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -9503,7 +9373,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -9515,7 +9385,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>2.63E-2</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -9527,34 +9397,34 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.69</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>2.3650000000000002</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="T17">
         <v>0</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>4.3700000000000003E-2</v>
       </c>
       <c r="V17">
         <v>0</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="X17">
         <v>0</v>
@@ -9563,7 +9433,7 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AA17">
         <v>0</v>
@@ -9571,10 +9441,10 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -9583,13 +9453,13 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1.5759441487422528E-2</v>
       </c>
       <c r="F18">
-        <v>2.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.13861141815530442</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -9601,7 +9471,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2.0471838497994901E-2</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -9610,22 +9480,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>6.7293382561772221E-4</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>1.0235919248997451E-2</v>
       </c>
       <c r="Q18">
-        <v>7.1658703071672356E-3</v>
+        <v>0</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>8.6006825938566549E-3</v>
+        <v>0</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -9646,7 +9516,7 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>3.4000000000000002E-4</v>
+        <v>0</v>
       </c>
       <c r="AA18">
         <v>0</v>
@@ -9654,7 +9524,7 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -9699,7 +9569,7 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>3.8500000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -9737,25 +9607,25 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="G20">
-        <v>8.473353592729339E-3</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -9770,28 +9640,28 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.15460748134588054</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.4784907036091873E-4</v>
       </c>
       <c r="O20">
-        <v>0.32355391460759253</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>6.9781972879553308E-3</v>
       </c>
       <c r="R20">
-        <v>4.9269733254647535E-2</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>8.3754320659399101E-3</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -9812,7 +9682,7 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>3.4000000000000002E-4</v>
       </c>
       <c r="AA20">
         <v>0</v>
@@ -9820,10 +9690,10 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -9832,10 +9702,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.0827416453659E-3</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>1.7040613462084633E-4</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -9847,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.8162453848338538E-5</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -9865,10 +9735,10 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>3.8500000000000001E-3</v>
       </c>
       <c r="Q21">
-        <v>2.8401022436807727E-2</v>
+        <v>0</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -9898,12 +9768,12 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>3.5027927672062857E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -9912,31 +9782,31 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.21879999999999999</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>8.1574948960991631E-3</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>4.592324514567532E-2</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.14884422397525851</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -9945,7 +9815,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>7.6565546699137982E-2</v>
+        <v>0.31149289099526067</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -9954,13 +9824,13 @@
         <v>0</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>4.7433119975286361E-2</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -9986,10 +9856,10 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -9998,58 +9868,58 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>3.9E-2</v>
+        <v>2.0051039008384978E-3</v>
       </c>
       <c r="F23">
-        <v>6.0999999999999999E-2</v>
+        <v>1.6405395552314983E-4</v>
       </c>
       <c r="G23">
-        <v>1.55E-2</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3.6135353592729336E-3</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.5621582209259943E-5</v>
       </c>
       <c r="K23">
-        <v>4.9719624491669128E-3</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>8.4187739846634472E-3</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>3.3201018189325783E-2</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.3672559415211201E-4</v>
+        <v>2.7342325920524973E-2</v>
       </c>
       <c r="R23">
-        <v>4.1000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>2.8171604468427532E-2</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>0.22699999999999998</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>4.1000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="W23">
         <v>0</v>
@@ -10064,12 +9934,12 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>3.3722201968647468E-2</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -10078,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>5.6802044873615449E-4</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>0.21879999999999999</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -10093,28 +9963,28 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.4211377914123995E-2</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>2.1447920500552074E-2</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>7.6565546699137982E-2</v>
       </c>
       <c r="P24">
-        <v>1.66E-2</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -10126,16 +9996,16 @@
         <v>0</v>
       </c>
       <c r="T24">
-        <v>8.0000000000000002E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="U24">
-        <v>7.5750106666666681E-4</v>
+        <v>0</v>
       </c>
       <c r="V24">
         <v>0</v>
       </c>
       <c r="W24">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="X24">
         <v>0</v>
@@ -10152,7 +10022,7 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -10164,58 +10034,58 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>3.9E-2</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.55E-2</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.5533880787458989E-3</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>4.7866240749681096E-3</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>8.1049498359460435E-3</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>3.593328459593418E-2</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>1.4201961744172802E-4</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>2.7710431826467371E-2</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>0.22699999999999998</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="W25">
         <v>0</v>
@@ -10235,7 +10105,7 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -10244,70 +10114,70 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>6.1929963078670831E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>5.4684651841049945E-4</v>
       </c>
       <c r="F26">
-        <v>0.12720270750970908</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>3.9133505221531223E-2</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>2.1447920500552074E-2</v>
+      </c>
+      <c r="M26">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>1.66E-2</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="U26">
+        <v>7.5750106666666681E-4</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
         <v>0.01</v>
       </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0.245</v>
-      </c>
-      <c r="N26">
-        <v>1.6606660218886675</v>
-      </c>
-      <c r="O26">
-        <v>9.0399999999999994E-2</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
       <c r="X26">
         <v>0</v>
       </c>
       <c r="Y26">
-        <v>1.806</v>
+        <v>0</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -10318,10 +10188,10 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -10330,16 +10200,16 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>5.1574012056262554E-3</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>6.4746595222147799E-3</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>2.5117213663764233E-3</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -10354,7 +10224,7 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>1.0325965617325296E-3</v>
+        <v>0</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -10378,7 +10248,7 @@
         <v>0</v>
       </c>
       <c r="U27">
-        <v>4.1862022772940388E-4</v>
+        <v>0</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -10401,52 +10271,52 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>1.1105178453090976E-2</v>
+        <v>5.9897265767407948E-2</v>
       </c>
       <c r="E28">
-        <v>2.7927672062860926E-3</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>9.9943883903257508E-2</v>
+        <v>0.12246100979083642</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>8.1175643106802114E-2</v>
+        <v>3.7674737117666265E-2</v>
       </c>
       <c r="I28">
-        <v>1.5737075944333996E-2</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K28">
-        <v>0.2720896008832287</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>0.245</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>1.6641535799526064</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>9.0399999999999994E-2</v>
       </c>
       <c r="P28">
-        <v>3.2248632657975302</v>
+        <v>0</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -10473,7 +10343,7 @@
         <v>0</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>1.806</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -10484,10 +10354,10 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -10496,19 +10366,19 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>5.268259307828268E-3</v>
       </c>
       <c r="F29">
-        <v>1.8</v>
+        <v>6.6138320314727186E-3</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2.5657107018644161E-3</v>
       </c>
       <c r="I29">
-        <v>3.1414660702451955E-2</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -10520,19 +10390,19 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>1.054792177433149E-3</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29">
-        <v>0.1684795276247627</v>
+        <v>0</v>
       </c>
       <c r="P29">
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>0.15904572564612326</v>
+        <v>0</v>
       </c>
       <c r="R29">
         <v>0</v>
@@ -10544,7 +10414,7 @@
         <v>0</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>4.2761845031073607E-4</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -10567,40 +10437,40 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>2.8878443623970465E-3</v>
+        <v>1.0691213999270871E-2</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>2.6886620488516225E-3</v>
       </c>
       <c r="F30">
-        <v>2.2936665719965918E-3</v>
+        <v>9.8475215176125785E-2</v>
       </c>
       <c r="G30">
-        <v>4.851462559113803E-3</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>7.8149682659237218E-2</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1.5150449617207436E-2</v>
       </c>
       <c r="J30">
-        <v>3.4081226924169269E-5</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>0.2788738214042214</v>
       </c>
       <c r="L30">
-        <v>3.3229196251065039E-2</v>
+        <v>0</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -10609,22 +10479,22 @@
         <v>0</v>
       </c>
       <c r="O30">
-        <v>9.4017241314020637E-4</v>
+        <v>0</v>
       </c>
       <c r="P30">
-        <v>2.8401022436807727E-2</v>
+        <v>3.31623629288999</v>
       </c>
       <c r="Q30">
         <v>0</v>
       </c>
       <c r="R30">
-        <v>7.8007548991763692E-4</v>
+        <v>0</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>3.2389643922441586E-3</v>
+        <v>0</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -10650,10 +10520,10 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -10662,19 +10532,19 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>7.5736059831487269E-4</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>1.5147211966297454E-3</v>
+        <v>1.8</v>
       </c>
       <c r="G31">
-        <v>1.1171068825144373E-3</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>3.0243625683558147E-2</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -10692,13 +10562,13 @@
         <v>0</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.16219916608643534</v>
       </c>
       <c r="P31">
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>0.15311702515493986</v>
       </c>
       <c r="R31">
         <v>0</v>
@@ -10733,7 +10603,7 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -10742,16 +10612,16 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>3.0000000000000001E-3</v>
+        <v>2.7801950419248998E-3</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>2.208166241341597E-3</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>4.6706160236893099E-3</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -10760,13 +10630,13 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>3.2810791104629972E-5</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>3.7868029915743634E-4</v>
+        <v>3.1990521327014222E-2</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -10775,22 +10645,22 @@
         <v>0</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>9.0512588406853811E-4</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>2.7342325920524973E-2</v>
       </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32">
-        <v>7.8576162075168036E-4</v>
+        <v>7.5099684651841047E-4</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>3.118226474232141E-3</v>
       </c>
       <c r="U32">
         <v>0</v>
@@ -10816,34 +10686,34 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>1.72E-2</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>3.2199999999999999E-2</v>
+        <v>7.2912869121399934E-4</v>
       </c>
       <c r="F33">
-        <v>6.8000000000000005E-2</v>
+        <v>1.4582573824279987E-3</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1.075464819540649E-3</v>
       </c>
       <c r="H33">
-        <v>7.2185932026886293E-2</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1.5948381993751776E-2</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -10855,25 +10725,25 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>8.9999999999999993E-3</v>
+        <v>0</v>
       </c>
       <c r="O33">
         <v>0</v>
       </c>
       <c r="P33">
-        <v>4.4999999999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>0.1950203540660797</v>
+        <v>0</v>
       </c>
       <c r="R33">
-        <v>0.26189179600000001</v>
+        <v>0</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>4.1999999999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -10899,7 +10769,7 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -10908,7 +10778,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -10920,7 +10790,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>2.3493535029821076E-2</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -10929,10 +10799,10 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>2.5670510271703112E-2</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>3.6456434560699967E-4</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -10950,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>7.5647101713452426E-4</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -10982,7 +10852,7 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -10991,58 +10861,58 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1.72E-2</v>
       </c>
       <c r="E35">
-        <v>2.7112562718924548E-2</v>
+        <v>3.2199999999999999E-2</v>
       </c>
       <c r="F35">
-        <v>2.9096468806210359E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.11836000000000001</v>
+        <v>6.9495078381334299E-2</v>
       </c>
       <c r="I35">
-        <v>1.0756902395152891E-3</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>1.4242778443372127E-2</v>
+        <v>1.5353878873496174E-2</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>7.1901061158510651E-2</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>8.4559147230458039E-3</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="O35">
-        <v>2.0241157166991031E-2</v>
+        <v>0</v>
       </c>
       <c r="P35">
-        <v>1.0756902395152891E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>0.18775063798760483</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>0.26189179600000001</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="U35">
-        <v>5.3E-3</v>
+        <v>0</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -11051,7 +10921,7 @@
         <v>0</v>
       </c>
       <c r="X35">
-        <v>1.9570679329756844E-3</v>
+        <v>0</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -11065,7 +10935,7 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -11074,7 +10944,7 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>7.7271790644961882E-2</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -11086,31 +10956,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>7.7271790644961882E-2</v>
+        <v>2.2617773470652573E-2</v>
       </c>
       <c r="I36">
-        <v>4.9599903839549424E-2</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>4.2928772580534375E-2</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>2.4713598250091142E-2</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
       <c r="M36">
-        <v>0.25757263548320625</v>
+        <v>0</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
       <c r="O36">
-        <v>0.36918744419259564</v>
+        <v>0</v>
       </c>
       <c r="P36">
-        <v>6.3660891792104515</v>
+        <v>0</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -11122,19 +10992,19 @@
         <v>0</v>
       </c>
       <c r="T36">
-        <v>2.1464386290267191E-2</v>
+        <v>0</v>
       </c>
       <c r="U36">
         <v>0</v>
       </c>
       <c r="V36">
-        <v>0.27903702177347345</v>
+        <v>0</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>0.18888659935435126</v>
+        <v>0</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -11148,10 +11018,10 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -11160,40 +11030,40 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>2.6101895734597157E-2</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>2.8011848341232229E-2</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>0.11836000000000001</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1.0355920524972658E-3</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1.3631445643495943E-2</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>6.9220826560093707E-2</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>8.1407060900048154E-3</v>
       </c>
       <c r="N37">
         <v>0</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>1.9486633535811728E-2</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>1.0355920524972658E-3</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -11214,10 +11084,10 @@
         <v>0</v>
       </c>
       <c r="W37">
-        <v>0</v>
+        <v>5.3E-3</v>
       </c>
       <c r="X37">
-        <v>0</v>
+        <v>1.8841148902681512E-3</v>
       </c>
       <c r="Y37">
         <v>0</v>
@@ -11231,16 +11101,16 @@
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>8.0606880245044921E-2</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -11252,13 +11122,13 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>8.0606880245044907E-2</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>5.1740660797291609E-2</v>
       </c>
       <c r="J38">
-        <v>6.3517939979172586E-2</v>
+        <v>4.4781600136136065E-2</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -11267,16 +11137,16 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>0.26868960081681637</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.38512176117077018</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>0.60226774023089402</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -11288,19 +11158,19 @@
         <v>0</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>2.2390800068068033E-2</v>
       </c>
       <c r="U38">
         <v>0</v>
       </c>
       <c r="V38">
-        <v>0</v>
+        <v>0.2910804008848844</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>0</v>
+        <v>0.19703904059899865</v>
       </c>
       <c r="Y38">
         <v>0</v>
@@ -11309,12 +11179,12 @@
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>0</v>
+        <v>4.4781600136136069E-3</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -11323,19 +11193,19 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>0.16163767868976617</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>0.64750497695979314</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0.19618307953758504</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>1.4978212457225457</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>1.1521002788082675</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -11344,7 +11214,7 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>2.6498306412590149</v>
+        <v>0</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -11392,12 +11262,12 @@
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>2.8802506970206689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -11409,10 +11279,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>8.5439742497396569</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>7.2115876171542164</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -11424,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>6.1150200510390086E-2</v>
       </c>
       <c r="K40">
-        <v>6.3428950108870579</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -11436,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>21.758023288838398</v>
+        <v>0</v>
       </c>
       <c r="O40">
         <v>0</v>
@@ -11480,7 +11350,7 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -11489,19 +11359,19 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>7.7806179365658049E-2</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.62458686266142216</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>0.19374497002687091</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>1.5053617448321517</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1.1579032687609276</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -11510,7 +11380,7 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>2.6631775181501336</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -11558,12 +11428,12 @@
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>0</v>
+        <v>2.8947581719023194</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -11575,10 +11445,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>8.2254830477579297</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>6.942763397739701</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -11593,7 +11463,7 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>6.1064527889172435</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -11602,7 +11472,7 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>20.946955887714179</v>
       </c>
       <c r="O42">
         <v>0</v>
@@ -11646,84 +11516,250 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>44</v>
       </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-      <c r="T43">
-        <v>0</v>
-      </c>
-      <c r="U43">
-        <v>0</v>
-      </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="X43">
-        <v>0</v>
-      </c>
-      <c r="Y43">
-        <v>0</v>
-      </c>
-      <c r="Z43">
-        <v>0</v>
-      </c>
-      <c r="AA43">
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
         <v>0</v>
       </c>
     </row>
